--- a/Schedule/1월 개발일정.xlsx
+++ b/Schedule/1월 개발일정.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lincoln\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\graduation-portfolio\Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1월개발일정" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1927,6 +1927,113 @@
   </si>
   <si>
     <t>김희승</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBX Loader 구현</t>
+  </si>
+  <si>
+    <t>PS,VS, 래스터라이즈, 컬링 공부</t>
+  </si>
+  <si>
+    <t>Circular Buffer, Ring Buffer 공부</t>
+  </si>
+  <si>
+    <r>
+      <t>1.9(2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.16(3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.23(4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.30(5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주차</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>특이사항</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1935,9 +2042,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\.\ m\.\ d"/>
+    <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2086,6 +2193,50 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2117,7 +2268,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2438,7 +2589,7 @@
         <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
@@ -2448,6 +2599,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2460,7 +2635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2476,96 +2651,108 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2581,22 +2768,31 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2917,7 +3113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -2935,106 +3131,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="31" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="34" t="s">
+      <c r="D2" s="38"/>
+      <c r="E2" s="21" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="35"/>
+      <c r="H2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="41" t="s">
+      <c r="F3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="36"/>
+      <c r="H3" s="40"/>
     </row>
     <row r="4" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="33" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="41"/>
     </row>
     <row r="5" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="14" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="F5" s="41" t="s">
+      <c r="F5" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="38" t="s">
+      <c r="G5" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="39"/>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
@@ -3063,554 +3259,554 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="22" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="5"/>
+      <c r="E8" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="22">
+      <c r="A9" s="14">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="22">
+      <c r="D9" s="5"/>
+      <c r="E9" s="14">
         <v>1.1100000000000001</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="23">
+      <c r="A10" s="15">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="22">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="14">
         <v>1.1200000000000001</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="23">
+      <c r="A11" s="15">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="22">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="14">
         <v>1.1299999999999999</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="24">
+      <c r="A12" s="16">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="24">
+      <c r="D12" s="5"/>
+      <c r="E12" s="16">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="23">
+      <c r="A13" s="15">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="23">
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="15">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="22" t="s">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="22">
+      <c r="A15" s="14">
         <v>1.17</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="22">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="14">
         <v>1.17</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="22">
+      <c r="A16" s="14">
         <v>1.18</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="22">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="14">
         <v>1.18</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="22">
+      <c r="A17" s="14">
         <v>1.19</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="22">
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="14">
         <v>1.19</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="22" t="s">
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="24">
+      <c r="A19" s="16">
         <v>1.21</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="24">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="16">
         <v>1.21</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="23">
+      <c r="A20" s="15">
         <v>1.22</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="23">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="15">
         <v>1.22</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="22" t="s">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="22">
+      <c r="A22" s="14">
         <v>1.24</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="22">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="14">
         <v>1.24</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="22">
+      <c r="A23" s="14">
         <v>1.25</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="22">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="14">
         <v>1.25</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="22">
+      <c r="A24" s="14">
         <v>1.26</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="22">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="14">
         <v>1.26</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="23">
+      <c r="A25" s="15">
         <v>1.27</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="23">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="15">
         <v>1.27</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="23">
+      <c r="A26" s="15">
         <v>1.28</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="23">
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="15">
         <v>1.28</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="23">
+      <c r="A27" s="15">
         <v>1.29</v>
       </c>
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="23">
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="15">
         <v>1.29</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="23" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="22">
+      <c r="A29" s="14">
         <v>1.31</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="22">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="14">
         <v>1.31</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="25">
+      <c r="A30" s="17">
         <v>2.1</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="25">
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="17">
         <v>2.1</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="25">
+      <c r="A31" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="25">
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="8"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="25">
+      <c r="A32" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="25">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G32" s="7"/>
-      <c r="H32" s="8"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="24">
+      <c r="A33" s="16">
         <v>2.4</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="24">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="16">
         <v>2.4</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="7"/>
-      <c r="H33" s="8"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="23">
+      <c r="A34" s="15">
         <v>2.5</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="23">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="15">
         <v>2.5</v>
       </c>
-      <c r="F34" s="29"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="27" t="s">
+      <c r="A36" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="16"/>
+      <c r="D36" s="28"/>
     </row>
     <row r="37" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="26" t="s">
+      <c r="A37" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="C37" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="20"/>
+      <c r="D37" s="30"/>
     </row>
     <row r="38" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="18"/>
-      <c r="D38" s="21"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="32"/>
     </row>
     <row r="39" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="21"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
@@ -3627,284 +3823,279 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="8"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="22">
+      <c r="A43" s="14">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="8"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="6"/>
     </row>
     <row r="44" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="22">
+      <c r="A44" s="14">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C44" s="7"/>
-      <c r="D44" s="8"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="6"/>
     </row>
     <row r="45" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A45" s="22">
+      <c r="A45" s="14">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="8"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="24">
+      <c r="A46" s="16">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="7"/>
-      <c r="D46" s="8"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="6"/>
     </row>
     <row r="47" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="23">
+      <c r="A47" s="15">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C47" s="7"/>
-      <c r="D47" s="8"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C48" s="7"/>
-      <c r="D48" s="8"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="6"/>
     </row>
     <row r="49" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="22">
+      <c r="A49" s="14">
         <v>1.17</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="7"/>
-      <c r="D49" s="8"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
     </row>
     <row r="50" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="22">
+      <c r="A50" s="14">
         <v>1.18</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="8"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
     </row>
     <row r="51" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="22">
+      <c r="A51" s="14">
         <v>1.19</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C51" s="7"/>
-      <c r="D51" s="8"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
     </row>
     <row r="52" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="8"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
     </row>
     <row r="53" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="24">
+      <c r="A53" s="16">
         <v>1.21</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="8"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="6"/>
     </row>
     <row r="54" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="23">
+      <c r="A54" s="15">
         <v>1.22</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="8"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="6"/>
     </row>
     <row r="55" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="7"/>
-      <c r="D55" s="8"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
     </row>
     <row r="56" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="22">
+      <c r="A56" s="14">
         <v>1.24</v>
       </c>
-      <c r="B56" s="7" t="s">
+      <c r="B56" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="7"/>
-      <c r="D56" s="8"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="6"/>
     </row>
     <row r="57" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="22">
+      <c r="A57" s="14">
         <v>1.25</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C57" s="7"/>
-      <c r="D57" s="8"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
     </row>
     <row r="58" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A58" s="22">
+      <c r="A58" s="14">
         <v>1.26</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="D58" s="8"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="6"/>
     </row>
     <row r="59" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="23">
+      <c r="A59" s="15">
         <v>1.27</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="8"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="6"/>
     </row>
     <row r="60" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A60" s="23">
+      <c r="A60" s="15">
         <v>1.28</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="8"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
     </row>
     <row r="61" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="23">
+      <c r="A61" s="15">
         <v>1.29</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="8"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="6"/>
     </row>
     <row r="62" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="23" t="s">
+      <c r="A62" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="B62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C62" s="7"/>
-      <c r="D62" s="8"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
     </row>
     <row r="63" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A63" s="22">
+      <c r="A63" s="14">
         <v>1.31</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C63" s="7"/>
-      <c r="D63" s="8"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
     </row>
     <row r="64" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A64" s="25">
+      <c r="A64" s="17">
         <v>2.1</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="7"/>
-      <c r="D64" s="8"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
     </row>
     <row r="65" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A65" s="25">
+      <c r="A65" s="17">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B65" s="7" t="s">
+      <c r="B65" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="7"/>
-      <c r="D65" s="8"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="6"/>
     </row>
     <row r="66" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="25">
+      <c r="A66" s="17">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="8"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="6"/>
     </row>
     <row r="67" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="24">
+      <c r="A67" s="16">
         <v>2.4</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="7"/>
-      <c r="D67" s="8"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="6"/>
     </row>
     <row r="68" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A68" s="23">
+      <c r="A68" s="15">
         <v>2.5</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="12"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A1:D1"/>
@@ -3915,6 +4106,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3923,258 +4119,297 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="12.09765625" customWidth="1"/>
     <col min="2" max="4" width="60.69921875" customWidth="1"/>
+    <col min="5" max="5" width="55.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="50" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="22" t="s">
+      <c r="E1" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="51" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="45"/>
+    </row>
+    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="22">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="45"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="44">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="22">
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="45"/>
+    </row>
+    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="44">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="22">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="45"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="44">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="24">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="46">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="23">
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="45"/>
+    </row>
+    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="47">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="22">
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="45"/>
+    </row>
+    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="44">
         <v>1.17</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="22">
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="44">
         <v>1.18</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="22">
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="45"/>
+    </row>
+    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="44">
         <v>1.19</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="22" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="45"/>
+    </row>
+    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="24">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="45"/>
+    </row>
+    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="46">
         <v>1.21</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="23">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="45"/>
+    </row>
+    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="47">
         <v>1.22</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="22">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="45"/>
+    </row>
+    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="45"/>
+    </row>
+    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="44">
         <v>1.24</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="22">
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="45"/>
+    </row>
+    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="44">
         <v>1.25</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="22">
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="45"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="44">
         <v>1.26</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="23">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="45"/>
+    </row>
+    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="47">
         <v>1.27</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="23">
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="45"/>
+    </row>
+    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="47">
         <v>1.28</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="23">
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="45"/>
+    </row>
+    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="47">
         <v>1.29</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="22">
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="45"/>
+    </row>
+    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="45"/>
+    </row>
+    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="44">
         <v>1.31</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="25">
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="45"/>
+    </row>
+    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="48">
         <v>2.1</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="25">
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="45"/>
+    </row>
+    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="48">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="25">
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="45"/>
+    </row>
+    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="48">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="24">
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="45"/>
+    </row>
+    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="46">
         <v>2.4</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="23">
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="45"/>
+    </row>
+    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="47">
         <v>2.5</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="52"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Schedule/1월 개발일정.xlsx
+++ b/Schedule/1월 개발일정.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1936,9 +1936,6 @@
     <t>PS,VS, 래스터라이즈, 컬링 공부</t>
   </si>
   <si>
-    <t>Circular Buffer, Ring Buffer 공부</t>
-  </si>
-  <si>
     <r>
       <t>1.9(2</t>
     </r>
@@ -2034,6 +2031,25 @@
   </si>
   <si>
     <t>특이사항</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring Buffer 공부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Circular Message Queue(Template Data)
+테스트 프로젝트 생성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>래스터 라이저 상태변경, 파일에서 매쉬 로드하기, 삼각형 리스트와
+삼각형 스트립, 여러 객체를 생성하기 위한 깊이 버퍼 생성 공부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shader 클래스, Vertex, Mesh 클래스 구현, 픽셀 쉐이더.
+HLSL, 버텍스 쉐이더.HLSL 구현</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2206,14 +2222,6 @@
     </font>
     <font>
       <sz val="13"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -2236,6 +2244,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2635,7 +2651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2711,6 +2727,39 @@
     <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2766,33 +2815,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3131,18 +3153,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
@@ -3151,20 +3173,20 @@
       <c r="B2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="38"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="21" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="39"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
@@ -3173,20 +3195,20 @@
       <c r="B3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="29"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="40"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
@@ -3195,20 +3217,20 @@
       <c r="B4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="12" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="41"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
@@ -3217,20 +3239,20 @@
       <c r="B5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="43"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
@@ -3755,12 +3777,12 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="25" t="s">
+      <c r="A35" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A36" s="19" t="s">
@@ -3769,10 +3791,10 @@
       <c r="B36" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="28"/>
+      <c r="D36" s="39"/>
     </row>
     <row r="37" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
@@ -3781,10 +3803,10 @@
       <c r="B37" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="30"/>
+      <c r="D37" s="41"/>
     </row>
     <row r="38" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18" t="s">
@@ -3793,8 +3815,8 @@
       <c r="B38" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="32"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
     </row>
     <row r="39" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18" t="s">
@@ -3803,10 +3825,10 @@
       <c r="B39" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="33" t="s">
+      <c r="C39" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="32"/>
+      <c r="D39" s="43"/>
     </row>
     <row r="40" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
@@ -4121,8 +4143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4133,279 +4155,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="29" t="s">
         <v>77</v>
       </c>
       <c r="E1" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="30" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
+      <c r="E2" s="31"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="25">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="25">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="25">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="31"/>
+    </row>
+    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="26">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31"/>
+    </row>
+    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="27">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="31"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="51" t="s">
-        <v>79</v>
-      </c>
-      <c r="D2" s="51" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="45"/>
-    </row>
-    <row r="3" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="45"/>
-    </row>
-    <row r="4" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="44">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="45"/>
-    </row>
-    <row r="5" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="44">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="45"/>
-    </row>
-    <row r="6" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="44">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="45"/>
-    </row>
-    <row r="7" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="46">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="45"/>
-    </row>
-    <row r="8" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="47">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="45"/>
-    </row>
-    <row r="9" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="44" t="s">
+      <c r="B9" s="30"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+    </row>
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="25">
+        <v>1.17</v>
+      </c>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="31"/>
+    </row>
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="25">
+        <v>1.18</v>
+      </c>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="31"/>
+    </row>
+    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="25">
+        <v>1.19</v>
+      </c>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="31"/>
+    </row>
+    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="26">
+        <v>1.21</v>
+      </c>
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31"/>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="27">
+        <v>1.22</v>
+      </c>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="31"/>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="45"/>
-    </row>
-    <row r="10" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="44">
-        <v>1.17</v>
-      </c>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="45"/>
-    </row>
-    <row r="11" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="44">
-        <v>1.18</v>
-      </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="45"/>
-    </row>
-    <row r="12" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="44">
-        <v>1.19</v>
-      </c>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="45"/>
-    </row>
-    <row r="13" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="45"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="46">
-        <v>1.21</v>
-      </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="45"/>
-    </row>
-    <row r="15" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="47">
-        <v>1.22</v>
-      </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="45"/>
-    </row>
-    <row r="16" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="44" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="31"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="25">
+        <v>1.24</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31"/>
+    </row>
+    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="25">
+        <v>1.25</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="25">
+        <v>1.26</v>
+      </c>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="27">
+        <v>1.27</v>
+      </c>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+    </row>
+    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="27">
+        <v>1.28</v>
+      </c>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="31"/>
+    </row>
+    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="27">
+        <v>1.29</v>
+      </c>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+    </row>
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="45"/>
-    </row>
-    <row r="17" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="44">
-        <v>1.24</v>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="45"/>
-    </row>
-    <row r="18" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="44">
-        <v>1.25</v>
-      </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="45"/>
-    </row>
-    <row r="19" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="44">
-        <v>1.26</v>
-      </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="45"/>
-    </row>
-    <row r="20" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="47">
-        <v>1.27</v>
-      </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="45"/>
-    </row>
-    <row r="21" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="47">
-        <v>1.28</v>
-      </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="45"/>
-    </row>
-    <row r="22" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="47">
-        <v>1.29</v>
-      </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="45"/>
-    </row>
-    <row r="23" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="45"/>
-    </row>
-    <row r="24" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="44">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="25">
         <v>1.31</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="45"/>
-    </row>
-    <row r="25" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="48">
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+    </row>
+    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="28">
         <v>2.1</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="45"/>
-    </row>
-    <row r="26" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="48">
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="31"/>
+    </row>
+    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="28">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="45"/>
-    </row>
-    <row r="27" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="48">
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+    </row>
+    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="28">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="45"/>
-    </row>
-    <row r="28" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="46">
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="31"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="26">
         <v>2.4</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="45"/>
-    </row>
-    <row r="29" spans="1:5" ht="19.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="47">
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="31"/>
+    </row>
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="27">
         <v>2.5</v>
       </c>
-      <c r="B29" s="52"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="49"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="34"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Schedule/1월 개발일정.xlsx
+++ b/Schedule/1월 개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="1월개발일정" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2034,15 +2034,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Ring Buffer 공부</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Circular Message Queue(Template Data)
-테스트 프로젝트 생성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>래스터 라이저 상태변경, 파일에서 매쉬 로드하기, 삼각형 리스트와
 삼각형 스트립, 여러 객체를 생성하기 위한 깊이 버퍼 생성 공부</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2050,6 +2041,30 @@
   <si>
     <t>Shader 클래스, Vertex, Mesh 클래스 구현, 픽셀 쉐이더.
 HLSL, 버텍스 쉐이더.HLSL 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>카메라를 통한 플레이어 바라보는 시점 조정, 
+방어형 캐릭터 스킬 기획</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임프레임워크 카메라 클래스 3인칭 시점 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적인 자료구조 (큐,원형큐 공부)
+네트워크 버퍼 공부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear Message Queue 구현
+Circular Message Queue 구현
+테스트 프로젝트 생성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring Buffer 공부 및 구현</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2760,61 +2775,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3135,7 +3150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -3153,18 +3168,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
@@ -3173,20 +3188,20 @@
       <c r="B2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="21" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="50"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
@@ -3195,20 +3210,20 @@
       <c r="B3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
@@ -3217,20 +3232,20 @@
       <c r="B4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="12" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G4" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="52"/>
+      <c r="H4" s="49"/>
     </row>
     <row r="5" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
@@ -3239,20 +3254,20 @@
       <c r="B5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="36"/>
       <c r="E5" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="54"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
@@ -3777,12 +3792,12 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
     </row>
     <row r="36" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A36" s="19" t="s">
@@ -3791,10 +3806,10 @@
       <c r="B36" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="39"/>
+      <c r="D36" s="52"/>
     </row>
     <row r="37" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
@@ -3803,10 +3818,10 @@
       <c r="B37" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="41"/>
+      <c r="D37" s="53"/>
     </row>
     <row r="38" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18" t="s">
@@ -3815,8 +3830,8 @@
       <c r="B38" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="54"/>
     </row>
     <row r="39" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18" t="s">
@@ -3825,10 +3840,10 @@
       <c r="B39" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="43"/>
+      <c r="D39" s="54"/>
     </row>
     <row r="40" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
@@ -4118,6 +4133,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A1:D1"/>
@@ -4128,11 +4148,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4143,8 +4158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4181,8 +4196,8 @@
       <c r="C2" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>85</v>
+      <c r="D2" s="35" t="s">
+        <v>89</v>
       </c>
       <c r="E2" s="31"/>
     </row>
@@ -4191,13 +4206,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E3" s="31"/>
     </row>
@@ -4205,9 +4220,15 @@
       <c r="A4" s="25">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>91</v>
+      </c>
       <c r="E4" s="31"/>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">

--- a/Schedule/1월 개발일정.xlsx
+++ b/Schedule/1월 개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1월개발일정" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2065,6 +2065,19 @@
   </si>
   <si>
     <t>Ring Buffer 공부 및 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자 캐릭터 base와 공격형 궁수 이미지와 파츠조립 시작</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Packet Design ( Encode , Decode ) 구현
+Ring Buffer를 사용한 TCP에코서버 구현(1)-진행중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>박범준 : 놀이터 공연</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2075,7 +2088,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2268,8 +2281,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2296,6 +2317,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFCE5CD"/>
         <bgColor rgb="FFFCE5CD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
   </fills>
@@ -2655,7 +2681,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2665,8 +2691,11 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2775,13 +2804,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
@@ -2796,24 +2843,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2823,17 +2861,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
     <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3150,7 +3183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -3168,18 +3201,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="40" t="s">
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="42"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
@@ -3188,20 +3221,20 @@
       <c r="B2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="44"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="21" t="s">
         <v>58</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="46"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
@@ -3210,20 +3243,20 @@
       <c r="B3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="45"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="47"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
@@ -3232,20 +3265,20 @@
       <c r="B4" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="36"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="12" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="48" t="s">
+      <c r="G4" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="49"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
@@ -3254,20 +3287,20 @@
       <c r="B5" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="36"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="12" t="s">
         <v>68</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="51"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
@@ -3792,12 +3825,12 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
     </row>
     <row r="36" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A36" s="19" t="s">
@@ -3806,10 +3839,10 @@
       <c r="B36" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="43" t="s">
+      <c r="C36" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="52"/>
+      <c r="D36" s="39"/>
     </row>
     <row r="37" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
@@ -3818,10 +3851,10 @@
       <c r="B37" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="40" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="53"/>
+      <c r="D37" s="41"/>
     </row>
     <row r="38" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18" t="s">
@@ -3830,8 +3863,8 @@
       <c r="B38" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="54"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="43"/>
     </row>
     <row r="39" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18" t="s">
@@ -3840,10 +3873,10 @@
       <c r="B39" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="D39" s="54"/>
+      <c r="D39" s="43"/>
     </row>
     <row r="40" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
@@ -4133,11 +4166,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A1:D1"/>
@@ -4148,6 +4176,11 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G5:H5"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4158,8 +4191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4235,10 +4268,16 @@
       <c r="A5" s="25">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25">

--- a/Schedule/1월 개발일정.xlsx
+++ b/Schedule/1월 개발일정.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\graduation-portfolio\Schedule\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="1월개발일정" sheetId="1" r:id="rId1"/>
     <sheet name="1월 Daily Report" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -133,10 +128,6 @@
   </si>
   <si>
     <t>이진수(클라이언트)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버프레임워크 소켓입출력 모델 분석</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2078,13 +2069,25 @@
   </si>
   <si>
     <t>박범준 : 놀이터 공연</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈도우 소켓프로그래밍 복습 및 공부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티스레드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티스레드</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d"/>
   </numFmts>
@@ -2325,7 +2328,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2680,6 +2683,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2695,7 +2707,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2804,6 +2816,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2861,7 +2876,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2882,6 +2900,66 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>13608</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>27215</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="11089822" y="5878286"/>
+          <a:ext cx="11076214" cy="5837464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3173,7 +3251,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3183,126 +3261,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.296875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.69921875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="1"/>
+    <col min="6" max="6" width="54.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:8" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="48"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="49"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="51"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="49"/>
-      <c r="E2" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="50"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="18" t="s">
+      <c r="C3" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="52"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="40" t="s">
+      <c r="B4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="12" t="s">
+      <c r="C4" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G4" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="51"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="18" t="s">
+      <c r="H4" s="53"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="42" t="s">
+      <c r="B5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="12" t="s">
+      <c r="C5" s="43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G4" s="44" t="s">
+      <c r="G5" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="52"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5" s="54"/>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3328,9 +3406,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>4</v>
@@ -3340,15 +3418,15 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -3363,12 +3441,12 @@
         <v>9</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>1.1100000000000001</v>
       </c>
@@ -3383,12 +3461,12 @@
         <v>1.1100000000000001</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>1.1200000000000001</v>
       </c>
@@ -3401,12 +3479,12 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>1.1299999999999999</v>
       </c>
@@ -3419,12 +3497,12 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>1.1399999999999999</v>
       </c>
@@ -3439,12 +3517,12 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>1.1499999999999999</v>
       </c>
@@ -3460,9 +3538,9 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>14</v>
@@ -3470,15 +3548,15 @@
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>1.17</v>
       </c>
@@ -3491,12 +3569,12 @@
         <v>1.17</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>1.18</v>
       </c>
@@ -3509,12 +3587,12 @@
         <v>1.18</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>1.19</v>
       </c>
@@ -3527,12 +3605,12 @@
         <v>1.19</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>10</v>
       </c>
@@ -3545,12 +3623,12 @@
         <v>10</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>1.21</v>
       </c>
@@ -3564,7 +3642,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
         <v>1.22</v>
       </c>
@@ -3578,9 +3656,9 @@
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>17</v>
@@ -3588,15 +3666,15 @@
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>1.24</v>
       </c>
@@ -3609,12 +3687,12 @@
         <v>1.24</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>1.25</v>
       </c>
@@ -3627,12 +3705,12 @@
         <v>1.25</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>1.26</v>
       </c>
@@ -3645,12 +3723,12 @@
         <v>1.26</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>1.27</v>
       </c>
@@ -3663,12 +3741,12 @@
         <v>1.27</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>1.28</v>
       </c>
@@ -3681,12 +3759,12 @@
         <v>1.28</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>1.29</v>
       </c>
@@ -3699,14 +3777,14 @@
         <v>1.29</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>25</v>
@@ -3714,15 +3792,15 @@
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>1.31</v>
       </c>
@@ -3735,12 +3813,12 @@
         <v>1.31</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>2.1</v>
       </c>
@@ -3753,12 +3831,12 @@
         <v>2.1</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>2.2000000000000002</v>
       </c>
@@ -3771,12 +3849,12 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>2.2999999999999998</v>
       </c>
@@ -3789,12 +3867,12 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>2.4</v>
       </c>
@@ -3805,12 +3883,12 @@
         <v>2.4</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="15">
         <v>2.5</v>
       </c>
@@ -3824,61 +3902,81 @@
       <c r="G34" s="9"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-    </row>
-    <row r="36" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+    </row>
+    <row r="36" spans="1:8" ht="13.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="39"/>
-    </row>
-    <row r="37" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="40"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="56"/>
+    </row>
+    <row r="37" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="C37" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="D37" s="42"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="56"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="D37" s="41"/>
-    </row>
-    <row r="38" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="18" t="s">
+      <c r="C38" s="43"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="56"/>
+    </row>
+    <row r="39" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C38" s="42"/>
-      <c r="D38" s="43"/>
-    </row>
-    <row r="39" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="18" t="s">
+      <c r="B39" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="C39" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="43"/>
-    </row>
-    <row r="40" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D39" s="44"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="56"/>
+      <c r="G39" s="56"/>
+      <c r="H39" s="56"/>
+    </row>
+    <row r="40" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -3891,184 +3989,264 @@
       <c r="D40" s="4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="56"/>
+      <c r="H40" s="56"/>
+    </row>
+    <row r="41" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
-    </row>
-    <row r="42" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E41" s="56"/>
+      <c r="F41" s="56"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="56"/>
+    </row>
+    <row r="42" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
-    </row>
-    <row r="43" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E42" s="56"/>
+      <c r="F42" s="56"/>
+      <c r="G42" s="56"/>
+      <c r="H42" s="56"/>
+    </row>
+    <row r="43" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>1.1100000000000001</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
-    </row>
-    <row r="44" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E43" s="56"/>
+      <c r="F43" s="56"/>
+      <c r="G43" s="56"/>
+      <c r="H43" s="56"/>
+    </row>
+    <row r="44" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>1.1200000000000001</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>96</v>
+      </c>
       <c r="D44" s="6"/>
-    </row>
-    <row r="45" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="56"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="56"/>
+    </row>
+    <row r="45" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>1.1299999999999999</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" s="5"/>
+        <v>94</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="D45" s="6"/>
-    </row>
-    <row r="46" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E45" s="56"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="56"/>
+      <c r="H45" s="56"/>
+    </row>
+    <row r="46" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>1.1399999999999999</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="56"/>
+      <c r="H46" s="56"/>
+    </row>
+    <row r="47" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>1.1499999999999999</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
-    </row>
-    <row r="48" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E47" s="56"/>
+      <c r="F47" s="56"/>
+      <c r="G47" s="56"/>
+      <c r="H47" s="56"/>
+    </row>
+    <row r="48" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
-    </row>
-    <row r="49" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="56"/>
+      <c r="H48" s="56"/>
+    </row>
+    <row r="49" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>1.17</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
-    </row>
-    <row r="50" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E49" s="56"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="56"/>
+      <c r="H49" s="56"/>
+    </row>
+    <row r="50" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>1.18</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
-    </row>
-    <row r="51" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+    </row>
+    <row r="51" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>1.19</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
-    </row>
-    <row r="52" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E51" s="56"/>
+      <c r="F51" s="56"/>
+      <c r="G51" s="56"/>
+      <c r="H51" s="56"/>
+    </row>
+    <row r="52" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
-    </row>
-    <row r="53" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="56"/>
+      <c r="H52" s="56"/>
+    </row>
+    <row r="53" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>1.21</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
-    </row>
-    <row r="54" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="56"/>
+      <c r="H53" s="56"/>
+    </row>
+    <row r="54" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>1.22</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
-    </row>
-    <row r="55" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="56"/>
+      <c r="H54" s="56"/>
+    </row>
+    <row r="55" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
-    </row>
-    <row r="56" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E55" s="56"/>
+      <c r="F55" s="56"/>
+      <c r="G55" s="56"/>
+      <c r="H55" s="56"/>
+    </row>
+    <row r="56" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>1.24</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
-    </row>
-    <row r="57" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="56"/>
+      <c r="H56" s="56"/>
+    </row>
+    <row r="57" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>1.25</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
-    </row>
-    <row r="58" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E57" s="56"/>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="56"/>
+    </row>
+    <row r="58" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>1.26</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
-    </row>
-    <row r="59" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E58" s="56"/>
+      <c r="F58" s="56"/>
+      <c r="G58" s="56"/>
+      <c r="H58" s="56"/>
+    </row>
+    <row r="59" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>1.27</v>
       </c>
@@ -4077,8 +4255,12 @@
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
-    </row>
-    <row r="60" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E59" s="56"/>
+      <c r="F59" s="56"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="56"/>
+    </row>
+    <row r="60" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>1.28</v>
       </c>
@@ -4087,8 +4269,12 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E60" s="56"/>
+      <c r="F60" s="56"/>
+      <c r="G60" s="56"/>
+      <c r="H60" s="56"/>
+    </row>
+    <row r="61" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>1.29</v>
       </c>
@@ -4097,75 +4283,108 @@
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
-    </row>
-    <row r="62" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E61" s="56"/>
+      <c r="F61" s="56"/>
+      <c r="G61" s="56"/>
+      <c r="H61" s="56"/>
+    </row>
+    <row r="62" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
-    </row>
-    <row r="63" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="56"/>
+      <c r="H62" s="56"/>
+    </row>
+    <row r="63" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>1.31</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
-    </row>
-    <row r="64" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E63" s="56"/>
+      <c r="F63" s="56"/>
+      <c r="G63" s="56"/>
+      <c r="H63" s="56"/>
+    </row>
+    <row r="64" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>2.1</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
-    </row>
-    <row r="65" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="56"/>
+      <c r="H64" s="56"/>
+    </row>
+    <row r="65" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>2.2000000000000002</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
-    </row>
-    <row r="66" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="56"/>
+    </row>
+    <row r="66" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>2.2999999999999998</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
-    </row>
-    <row r="67" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="56"/>
+      <c r="H66" s="56"/>
+    </row>
+    <row r="67" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>2.4</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
-    </row>
-    <row r="68" spans="1:4" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E67" s="56"/>
+      <c r="F67" s="56"/>
+      <c r="G67" s="56"/>
+      <c r="H67" s="56"/>
+    </row>
+    <row r="68" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>2.5</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="16">
+    <mergeCell ref="E35:H68"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="A1:D1"/>
@@ -4184,6 +4403,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4191,92 +4411,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="4" width="60.69921875" customWidth="1"/>
-    <col min="5" max="5" width="55.296875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="4" width="60.75" customWidth="1"/>
+    <col min="5" max="5" width="55.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="29" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="C2" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>79</v>
-      </c>
       <c r="D2" s="35" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="31"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>1.1100000000000001</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="E5" s="31" t="s">
         <v>93</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -4306,9 +4526,9 @@
       <c r="D8" s="30"/>
       <c r="E8" s="31"/>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
@@ -4369,9 +4589,9 @@
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -4432,9 +4652,9 @@
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -4486,7 +4706,7 @@
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27">
         <v>2.5</v>
       </c>

--- a/Schedule/1월 개발일정.xlsx
+++ b/Schedule/1월 개발일정.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1월개발일정" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2063,24 +2063,33 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>박범준 : 놀이터 공연</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>윈도우 소켓프로그래밍 복습 및 공부</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티스레드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티스레드</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Packet Design ( Encode , Decode ) 구현
 Ring Buffer를 사용한 TCP에코서버 구현(1)-진행중</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>박범준 : 놀이터 공연</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>윈도우 소켓프로그래밍 복습 및 공부</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티스레드</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>멀티스레드</t>
+    <t>Ring Buffer를 사용한 TCP에코서버 구현(2)-진행중
+멀티스레드 복습</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>여자 캐릭터 기본바디와 수영복 리소스 파츠조립-진행중</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2819,67 +2828,67 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3251,7 +3260,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3261,7 +3270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
@@ -3279,18 +3288,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="47" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="49"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -3299,20 +3308,20 @@
       <c r="B2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="47"/>
       <c r="E2" s="21" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="39" t="s">
+      <c r="G2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="51"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3321,20 +3330,20 @@
       <c r="B3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="41"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="12" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="52"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3343,20 +3352,20 @@
       <c r="B4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="43"/>
+      <c r="D4" s="39"/>
       <c r="E4" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="53"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -3365,20 +3374,20 @@
       <c r="B5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="43"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="12" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="55"/>
+      <c r="H5" s="54"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -3903,16 +3912,16 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
     </row>
     <row r="36" spans="1:8" ht="13.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
@@ -3921,14 +3930,14 @@
       <c r="B36" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="39" t="s">
+      <c r="C36" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="40"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="56"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
     </row>
     <row r="37" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
@@ -3937,14 +3946,14 @@
       <c r="B37" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
     </row>
     <row r="38" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
@@ -3953,12 +3962,12 @@
       <c r="B38" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="43"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="56"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
@@ -3967,14 +3976,14 @@
       <c r="B39" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="44"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="56"/>
-      <c r="G39" s="56"/>
-      <c r="H39" s="56"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
     </row>
     <row r="40" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
@@ -3989,84 +3998,84 @@
       <c r="D40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="56"/>
-      <c r="H40" s="56"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
     </row>
     <row r="41" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="56"/>
-      <c r="F41" s="56"/>
-      <c r="G41" s="56"/>
-      <c r="H41" s="56"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
     </row>
     <row r="42" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
+      <c r="E42" s="38"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
     </row>
     <row r="43" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>1.1100000000000001</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="56"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
     </row>
     <row r="44" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>1.1200000000000001</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
     </row>
     <row r="45" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>1.1299999999999999</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
     </row>
     <row r="46" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
@@ -4077,10 +4086,10 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="56"/>
-      <c r="H46" s="56"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
     </row>
     <row r="47" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
@@ -4091,10 +4100,10 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="56"/>
-      <c r="F47" s="56"/>
-      <c r="G47" s="56"/>
-      <c r="H47" s="56"/>
+      <c r="E47" s="38"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
     </row>
     <row r="48" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
@@ -4105,10 +4114,10 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="56"/>
-      <c r="H48" s="56"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
     </row>
     <row r="49" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
@@ -4119,10 +4128,10 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="56"/>
-      <c r="G49" s="56"/>
-      <c r="H49" s="56"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
     </row>
     <row r="50" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
@@ -4133,10 +4142,10 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
     </row>
     <row r="51" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
@@ -4147,10 +4156,10 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
     </row>
     <row r="52" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
@@ -4161,10 +4170,10 @@
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="56"/>
-      <c r="H52" s="56"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
     </row>
     <row r="53" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
@@ -4173,10 +4182,10 @@
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="G53" s="56"/>
-      <c r="H53" s="56"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
     </row>
     <row r="54" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
@@ -4185,10 +4194,10 @@
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
     </row>
     <row r="55" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
@@ -4199,10 +4208,10 @@
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
     </row>
     <row r="56" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
@@ -4213,10 +4222,10 @@
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
+      <c r="H56" s="38"/>
     </row>
     <row r="57" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
@@ -4227,10 +4236,10 @@
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
+      <c r="E57" s="38"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
+      <c r="H57" s="38"/>
     </row>
     <row r="58" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
@@ -4241,10 +4250,10 @@
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="56"/>
-      <c r="G58" s="56"/>
-      <c r="H58" s="56"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
+      <c r="H58" s="38"/>
     </row>
     <row r="59" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
@@ -4255,10 +4264,10 @@
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="56"/>
-      <c r="G59" s="56"/>
-      <c r="H59" s="56"/>
+      <c r="E59" s="38"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
     </row>
     <row r="60" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
@@ -4269,10 +4278,10 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="56"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
     </row>
     <row r="61" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
@@ -4283,10 +4292,10 @@
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
     </row>
     <row r="62" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
@@ -4297,10 +4306,10 @@
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
+      <c r="E62" s="38"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
     </row>
     <row r="63" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
@@ -4311,10 +4320,10 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="56"/>
-      <c r="F63" s="56"/>
-      <c r="G63" s="56"/>
-      <c r="H63" s="56"/>
+      <c r="E63" s="38"/>
+      <c r="F63" s="38"/>
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
     </row>
     <row r="64" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
@@ -4325,10 +4334,10 @@
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
+      <c r="E64" s="38"/>
+      <c r="F64" s="38"/>
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
     </row>
     <row r="65" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
@@ -4339,10 +4348,10 @@
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
     </row>
     <row r="66" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
@@ -4353,10 +4362,10 @@
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
+      <c r="E66" s="38"/>
+      <c r="F66" s="38"/>
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
     </row>
     <row r="67" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
@@ -4365,10 +4374,10 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="56"/>
-      <c r="F67" s="56"/>
-      <c r="G67" s="56"/>
-      <c r="H67" s="56"/>
+      <c r="E67" s="38"/>
+      <c r="F67" s="38"/>
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
     </row>
     <row r="68" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
@@ -4377,10 +4386,10 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
+      <c r="E68" s="38"/>
+      <c r="F68" s="38"/>
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4411,8 +4420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4493,20 +4502,26 @@
         <v>91</v>
       </c>
       <c r="D5" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="31" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
@@ -4697,7 +4712,7 @@
       <c r="D27" s="30"/>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26">
         <v>2.4</v>
       </c>

--- a/Schedule/1월 개발일정.xlsx
+++ b/Schedule/1월 개발일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\graduation-portfolio\Schedule\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -1921,9 +1926,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>FBX Loader 구현</t>
-  </si>
-  <si>
     <t>PS,VS, 래스터라이즈, 컬링 공부</t>
   </si>
   <si>
@@ -2027,11 +2029,6 @@
   <si>
     <t>래스터 라이저 상태변경, 파일에서 매쉬 로드하기, 삼각형 리스트와
 삼각형 스트립, 여러 객체를 생성하기 위한 깊이 버퍼 생성 공부</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Shader 클래스, Vertex, Mesh 클래스 구현, 픽셀 쉐이더.
-HLSL, 버텍스 쉐이더.HLSL 구현</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2090,17 +2087,42 @@
   </si>
   <si>
     <t>여자 캐릭터 기본바디와 수영복 리소스 파츠조립-진행중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>현장실습 중간보고회 참석</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터별 스킬기획과 기본능력치 기획</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티스레드 연습 및 UDP서버 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbx loader구현. dds 텍스쳐 매핑 렌더러 구현(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBX Loader 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shader 클래스, Vertex, Mesh 클래스 구현, 픽셀 쉐이더.
+HLSL, 버텍스 쉐이더.HLSL 구현</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2301,8 +2323,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2336,8 +2367,13 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -2701,8 +2737,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2715,8 +2766,11 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2891,11 +2945,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="29" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
     <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
+    <cellStyle name="출력" xfId="4" builtinId="21"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2928,7 +2986,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3260,7 +3324,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3274,20 +3338,20 @@
       <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.69921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="6" max="6" width="54.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.69921875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="40" t="s">
         <v>27</v>
       </c>
@@ -3301,7 +3365,7 @@
       <c r="G1" s="44"/>
       <c r="H1" s="45"/>
     </row>
-    <row r="2" spans="1:8" ht="13.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>57</v>
       </c>
@@ -3323,7 +3387,7 @@
       </c>
       <c r="H2" s="49"/>
     </row>
-    <row r="3" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>54</v>
       </c>
@@ -3345,7 +3409,7 @@
       </c>
       <c r="H3" s="50"/>
     </row>
-    <row r="4" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>55</v>
       </c>
@@ -3367,7 +3431,7 @@
       </c>
       <c r="H4" s="52"/>
     </row>
-    <row r="5" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
         <v>56</v>
       </c>
@@ -3389,7 +3453,7 @@
       </c>
       <c r="H5" s="54"/>
     </row>
-    <row r="6" spans="1:8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3415,7 +3479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
@@ -3435,7 +3499,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -3455,7 +3519,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14">
         <v>1.1100000000000001</v>
       </c>
@@ -3475,7 +3539,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
         <v>1.1200000000000001</v>
       </c>
@@ -3493,7 +3557,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
         <v>1.1299999999999999</v>
       </c>
@@ -3511,7 +3575,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>1.1399999999999999</v>
       </c>
@@ -3531,7 +3595,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
         <v>1.1499999999999999</v>
       </c>
@@ -3547,7 +3611,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
@@ -3565,7 +3629,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14">
         <v>1.17</v>
       </c>
@@ -3583,7 +3647,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14">
         <v>1.18</v>
       </c>
@@ -3601,7 +3665,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14">
         <v>1.19</v>
       </c>
@@ -3619,7 +3683,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
         <v>10</v>
       </c>
@@ -3637,7 +3701,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>1.21</v>
       </c>
@@ -3651,7 +3715,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
         <v>1.22</v>
       </c>
@@ -3665,7 +3729,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
         <v>31</v>
       </c>
@@ -3683,7 +3747,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="14">
         <v>1.24</v>
       </c>
@@ -3701,7 +3765,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="14">
         <v>1.25</v>
       </c>
@@ -3719,7 +3783,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="14">
         <v>1.26</v>
       </c>
@@ -3737,7 +3801,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
         <v>1.27</v>
       </c>
@@ -3755,7 +3819,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
         <v>1.28</v>
       </c>
@@ -3773,7 +3837,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15">
         <v>1.29</v>
       </c>
@@ -3791,7 +3855,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
@@ -3809,7 +3873,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="14">
         <v>1.31</v>
       </c>
@@ -3827,7 +3891,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="17">
         <v>2.1</v>
       </c>
@@ -3845,7 +3909,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17">
         <v>2.2000000000000002</v>
       </c>
@@ -3863,7 +3927,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="17">
         <v>2.2999999999999998</v>
       </c>
@@ -3881,7 +3945,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16">
         <v>2.4</v>
       </c>
@@ -3897,7 +3961,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="15">
         <v>2.5</v>
       </c>
@@ -3911,7 +3975,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="40" t="s">
         <v>58</v>
       </c>
@@ -3923,7 +3987,7 @@
       <c r="G35" s="37"/>
       <c r="H35" s="37"/>
     </row>
-    <row r="36" spans="1:8" ht="13.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A36" s="19" t="s">
         <v>57</v>
       </c>
@@ -3939,7 +4003,7 @@
       <c r="G36" s="38"/>
       <c r="H36" s="38"/>
     </row>
-    <row r="37" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
         <v>67</v>
       </c>
@@ -3955,7 +4019,7 @@
       <c r="G37" s="38"/>
       <c r="H37" s="38"/>
     </row>
-    <row r="38" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18" t="s">
         <v>71</v>
       </c>
@@ -3969,7 +4033,7 @@
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
     </row>
-    <row r="39" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18" t="s">
         <v>72</v>
       </c>
@@ -3985,7 +4049,7 @@
       <c r="G39" s="38"/>
       <c r="H39" s="38"/>
     </row>
-    <row r="40" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -4003,12 +4067,12 @@
       <c r="G40" s="38"/>
       <c r="H40" s="38"/>
     </row>
-    <row r="41" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
@@ -4017,12 +4081,12 @@
       <c r="G41" s="38"/>
       <c r="H41" s="38"/>
     </row>
-    <row r="42" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
@@ -4031,12 +4095,12 @@
       <c r="G42" s="38"/>
       <c r="H42" s="38"/>
     </row>
-    <row r="43" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="14">
         <v>1.1100000000000001</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
@@ -4045,15 +4109,15 @@
       <c r="G43" s="38"/>
       <c r="H43" s="38"/>
     </row>
-    <row r="44" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="14">
         <v>1.1200000000000001</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>95</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="38"/>
@@ -4061,15 +4125,15 @@
       <c r="G44" s="38"/>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="14">
         <v>1.1299999999999999</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="38"/>
@@ -4077,7 +4141,7 @@
       <c r="G45" s="38"/>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>1.1399999999999999</v>
       </c>
@@ -4091,7 +4155,7 @@
       <c r="G46" s="38"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="15">
         <v>1.1499999999999999</v>
       </c>
@@ -4105,7 +4169,7 @@
       <c r="G47" s="38"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="14" t="s">
         <v>30</v>
       </c>
@@ -4119,7 +4183,7 @@
       <c r="G48" s="38"/>
       <c r="H48" s="38"/>
     </row>
-    <row r="49" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="14">
         <v>1.17</v>
       </c>
@@ -4133,7 +4197,7 @@
       <c r="G49" s="38"/>
       <c r="H49" s="38"/>
     </row>
-    <row r="50" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="14">
         <v>1.18</v>
       </c>
@@ -4147,7 +4211,7 @@
       <c r="G50" s="38"/>
       <c r="H50" s="38"/>
     </row>
-    <row r="51" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="14">
         <v>1.19</v>
       </c>
@@ -4161,7 +4225,7 @@
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
     </row>
-    <row r="52" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="14" t="s">
         <v>10</v>
       </c>
@@ -4175,7 +4239,7 @@
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
     </row>
-    <row r="53" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>1.21</v>
       </c>
@@ -4187,7 +4251,7 @@
       <c r="G53" s="38"/>
       <c r="H53" s="38"/>
     </row>
-    <row r="54" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="15">
         <v>1.22</v>
       </c>
@@ -4199,7 +4263,7 @@
       <c r="G54" s="38"/>
       <c r="H54" s="38"/>
     </row>
-    <row r="55" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="14" t="s">
         <v>31</v>
       </c>
@@ -4213,7 +4277,7 @@
       <c r="G55" s="38"/>
       <c r="H55" s="38"/>
     </row>
-    <row r="56" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="14">
         <v>1.24</v>
       </c>
@@ -4227,7 +4291,7 @@
       <c r="G56" s="38"/>
       <c r="H56" s="38"/>
     </row>
-    <row r="57" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="14">
         <v>1.25</v>
       </c>
@@ -4241,7 +4305,7 @@
       <c r="G57" s="38"/>
       <c r="H57" s="38"/>
     </row>
-    <row r="58" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="14">
         <v>1.26</v>
       </c>
@@ -4255,7 +4319,7 @@
       <c r="G58" s="38"/>
       <c r="H58" s="38"/>
     </row>
-    <row r="59" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="15">
         <v>1.27</v>
       </c>
@@ -4269,7 +4333,7 @@
       <c r="G59" s="38"/>
       <c r="H59" s="38"/>
     </row>
-    <row r="60" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="15">
         <v>1.28</v>
       </c>
@@ -4283,7 +4347,7 @@
       <c r="G60" s="38"/>
       <c r="H60" s="38"/>
     </row>
-    <row r="61" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="15">
         <v>1.29</v>
       </c>
@@ -4297,7 +4361,7 @@
       <c r="G61" s="38"/>
       <c r="H61" s="38"/>
     </row>
-    <row r="62" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="15" t="s">
         <v>32</v>
       </c>
@@ -4311,7 +4375,7 @@
       <c r="G62" s="38"/>
       <c r="H62" s="38"/>
     </row>
-    <row r="63" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="14">
         <v>1.31</v>
       </c>
@@ -4325,7 +4389,7 @@
       <c r="G63" s="38"/>
       <c r="H63" s="38"/>
     </row>
-    <row r="64" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="17">
         <v>2.1</v>
       </c>
@@ -4339,7 +4403,7 @@
       <c r="G64" s="38"/>
       <c r="H64" s="38"/>
     </row>
-    <row r="65" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="17">
         <v>2.2000000000000002</v>
       </c>
@@ -4353,7 +4417,7 @@
       <c r="G65" s="38"/>
       <c r="H65" s="38"/>
     </row>
-    <row r="66" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="17">
         <v>2.2999999999999998</v>
       </c>
@@ -4367,7 +4431,7 @@
       <c r="G66" s="38"/>
       <c r="H66" s="38"/>
     </row>
-    <row r="67" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="16">
         <v>2.4</v>
       </c>
@@ -4379,7 +4443,7 @@
       <c r="G67" s="38"/>
       <c r="H67" s="38"/>
     </row>
-    <row r="68" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="15">
         <v>2.5</v>
       </c>
@@ -4420,18 +4484,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="4" width="60.75" customWidth="1"/>
-    <col min="5" max="5" width="55.25" customWidth="1"/>
+    <col min="1" max="1" width="12.09765625" customWidth="1"/>
+    <col min="2" max="4" width="60.69921875" customWidth="1"/>
+    <col min="5" max="5" width="55.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
@@ -4445,118 +4509,130 @@
         <v>76</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B2" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>78</v>
-      </c>
       <c r="D2" s="35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E2" s="31"/>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="25" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="35" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E3" s="31"/>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="25">
         <v>1.1100000000000001</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D4" s="30" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" s="31"/>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="25">
         <v>1.1200000000000001</v>
       </c>
       <c r="B5" s="36"/>
       <c r="C5" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D5" s="35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E5" s="31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="25">
         <v>1.1299999999999999</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="30" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E6" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="27">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+    </row>
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+        <v>79</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>97</v>
+      </c>
       <c r="E9" s="31"/>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="25">
         <v>1.17</v>
       </c>
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+      <c r="B10" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>99</v>
+      </c>
       <c r="E10" s="31"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
@@ -4604,9 +4680,9 @@
       <c r="D15" s="30"/>
       <c r="E15" s="31"/>
     </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="25" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
@@ -4667,9 +4743,9 @@
       <c r="D22" s="30"/>
       <c r="E22" s="31"/>
     </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
@@ -4712,7 +4788,7 @@
       <c r="D27" s="30"/>
       <c r="E27" s="31"/>
     </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="26">
         <v>2.4</v>
       </c>
@@ -4721,7 +4797,7 @@
       <c r="D28" s="30"/>
       <c r="E28" s="31"/>
     </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="27">
         <v>2.5</v>
       </c>

--- a/Schedule/1월 개발일정.xlsx
+++ b/Schedule/1월 개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1월개발일정" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2112,6 +2112,85 @@
   <si>
     <t>Shader 클래스, Vertex, Mesh 클래스 구현, 픽셀 쉐이더.
 HLSL, 버텍스 쉐이더.HLSL 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버프레임워크 소켓입출력 모델 단위 테스트 프로젝트 만들기</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>FBX Loader 구현 및 쉐이더 수정</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>캐릭터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파츠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>조립</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>방어형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2122,7 +2201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2331,6 +2410,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2770,7 +2855,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2882,6 +2967,9 @@
     <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="29" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2945,7 +3033,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="29" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3335,7 +3423,7 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3352,18 +3440,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
@@ -3372,20 +3460,20 @@
       <c r="B2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="47"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="21" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="49"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
@@ -3394,20 +3482,20 @@
       <c r="B3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="12" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="G3" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="50"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
@@ -3416,20 +3504,20 @@
       <c r="B4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="39"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="52"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
@@ -3438,20 +3526,20 @@
       <c r="B5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="39"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="12" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="54"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
@@ -3641,8 +3729,8 @@
       <c r="E15" s="14">
         <v>1.17</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>43</v>
+      <c r="F15" s="59" t="s">
+        <v>105</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
@@ -3670,7 +3758,7 @@
         <v>1.19</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3976,16 +4064,16 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="37"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="37"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A36" s="19" t="s">
@@ -3994,14 +4082,14 @@
       <c r="B36" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="46" t="s">
+      <c r="C36" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
@@ -4010,14 +4098,14 @@
       <c r="B37" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="48" t="s">
+      <c r="C37" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="56"/>
-      <c r="E37" s="38"/>
-      <c r="F37" s="38"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18" t="s">
@@ -4026,12 +4114,12 @@
       <c r="B38" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
     </row>
     <row r="39" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18" t="s">
@@ -4040,14 +4128,14 @@
       <c r="B39" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="51" t="s">
+      <c r="C39" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="38"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
     </row>
     <row r="40" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
@@ -4062,10 +4150,10 @@
       <c r="D40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
     </row>
     <row r="41" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="14" t="s">
@@ -4076,10 +4164,10 @@
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="38"/>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="14" t="s">
@@ -4090,10 +4178,10 @@
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="14">
@@ -4104,10 +4192,10 @@
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="14">
@@ -4120,10 +4208,10 @@
         <v>93</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="14">
@@ -4136,10 +4224,10 @@
         <v>92</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
     </row>
     <row r="46" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
@@ -4150,10 +4238,10 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="15">
@@ -4164,24 +4252,24 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="38"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
     </row>
     <row r="48" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
-      <c r="G48" s="38"/>
-      <c r="H48" s="38"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
     </row>
     <row r="49" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="14">
@@ -4192,10 +4280,10 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="38"/>
-      <c r="F49" s="38"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="38"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
     </row>
     <row r="50" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="14">
@@ -4206,10 +4294,10 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="38"/>
-      <c r="F50" s="38"/>
-      <c r="G50" s="38"/>
-      <c r="H50" s="38"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
     </row>
     <row r="51" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="14">
@@ -4220,10 +4308,10 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="38"/>
-      <c r="F51" s="38"/>
-      <c r="G51" s="38"/>
-      <c r="H51" s="38"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
     </row>
     <row r="52" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="14" t="s">
@@ -4234,10 +4322,10 @@
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="38"/>
-      <c r="H52" s="38"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
     </row>
     <row r="53" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
@@ -4246,10 +4334,10 @@
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="38"/>
-      <c r="G53" s="38"/>
-      <c r="H53" s="38"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
     </row>
     <row r="54" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="15">
@@ -4258,10 +4346,10 @@
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
-      <c r="G54" s="38"/>
-      <c r="H54" s="38"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="14" t="s">
@@ -4272,10 +4360,10 @@
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="38"/>
-      <c r="G55" s="38"/>
-      <c r="H55" s="38"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
     </row>
     <row r="56" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="14">
@@ -4286,10 +4374,10 @@
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
-      <c r="G56" s="38"/>
-      <c r="H56" s="38"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
     </row>
     <row r="57" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="14">
@@ -4300,10 +4388,10 @@
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="38"/>
-      <c r="F57" s="38"/>
-      <c r="G57" s="38"/>
-      <c r="H57" s="38"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
     </row>
     <row r="58" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="14">
@@ -4314,10 +4402,10 @@
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
-      <c r="G58" s="38"/>
-      <c r="H58" s="38"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
     </row>
     <row r="59" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="15">
@@ -4328,10 +4416,10 @@
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="38"/>
-      <c r="F59" s="38"/>
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
     </row>
     <row r="60" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="15">
@@ -4342,10 +4430,10 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
     </row>
     <row r="61" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="15">
@@ -4356,10 +4444,10 @@
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
     </row>
     <row r="62" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="15" t="s">
@@ -4370,10 +4458,10 @@
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="38"/>
-      <c r="F62" s="38"/>
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
     </row>
     <row r="63" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="14">
@@ -4384,10 +4472,10 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="38"/>
-      <c r="F63" s="38"/>
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
     </row>
     <row r="64" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="17">
@@ -4398,10 +4486,10 @@
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="38"/>
-      <c r="F64" s="38"/>
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
     </row>
     <row r="65" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="17">
@@ -4412,10 +4500,10 @@
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
     </row>
     <row r="66" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="17">
@@ -4426,10 +4514,10 @@
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="38"/>
-      <c r="F66" s="38"/>
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
     </row>
     <row r="67" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="16">
@@ -4438,10 +4526,10 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="38"/>
-      <c r="F67" s="38"/>
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
     </row>
     <row r="68" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="15">
@@ -4450,10 +4538,10 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="38"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4484,8 +4572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4591,19 +4679,19 @@
       <c r="A7" s="26">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="27">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="25" t="s">

--- a/Schedule/1월 개발일정.xlsx
+++ b/Schedule/1월 개발일정.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1월개발일정" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2191,6 +2191,14 @@
       </rPr>
       <t>)</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP 채팅 서버 구현(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ds max 2017 설치</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2970,6 +2978,9 @@
     <xf numFmtId="0" fontId="29" fillId="7" borderId="29" xfId="4" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3031,9 +3042,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3440,18 +3448,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
@@ -3460,20 +3468,20 @@
       <c r="B2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="21" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="50"/>
+      <c r="H2" s="51"/>
     </row>
     <row r="3" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
@@ -3482,20 +3490,20 @@
       <c r="B3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="49" t="s">
+      <c r="C3" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="49"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="12" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="49" t="s">
+      <c r="G3" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="51"/>
+      <c r="H3" s="52"/>
     </row>
     <row r="4" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
@@ -3504,20 +3512,20 @@
       <c r="B4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="40"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="53"/>
+      <c r="H4" s="54"/>
     </row>
     <row r="5" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
@@ -3526,20 +3534,20 @@
       <c r="B5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="40"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="12" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="55"/>
+      <c r="H5" s="56"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
@@ -3729,7 +3737,7 @@
       <c r="E15" s="14">
         <v>1.17</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="38" t="s">
         <v>105</v>
       </c>
       <c r="G15" s="5"/>
@@ -4064,16 +4072,16 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
     </row>
     <row r="36" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A36" s="19" t="s">
@@ -4082,14 +4090,14 @@
       <c r="B36" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="47" t="s">
+      <c r="C36" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="56"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
     </row>
     <row r="37" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
@@ -4098,14 +4106,14 @@
       <c r="B37" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="49" t="s">
+      <c r="C37" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18" t="s">
@@ -4114,12 +4122,12 @@
       <c r="B38" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="40"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18" t="s">
@@ -4128,14 +4136,14 @@
       <c r="B39" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="52" t="s">
+      <c r="C39" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="58"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
+      <c r="G39" s="40"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
@@ -4150,10 +4158,10 @@
       <c r="D40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
     </row>
     <row r="41" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="14" t="s">
@@ -4164,10 +4172,10 @@
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
-      <c r="H41" s="39"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
+      <c r="G41" s="40"/>
+      <c r="H41" s="40"/>
     </row>
     <row r="42" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="14" t="s">
@@ -4178,10 +4186,10 @@
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
     </row>
     <row r="43" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="14">
@@ -4192,10 +4200,10 @@
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="39"/>
+      <c r="E43" s="40"/>
+      <c r="F43" s="40"/>
+      <c r="G43" s="40"/>
+      <c r="H43" s="40"/>
     </row>
     <row r="44" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="14">
@@ -4208,10 +4216,10 @@
         <v>93</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="39"/>
+      <c r="E44" s="40"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="40"/>
     </row>
     <row r="45" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="14">
@@ -4224,10 +4232,10 @@
         <v>92</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="39"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="39"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="40"/>
+      <c r="G45" s="40"/>
+      <c r="H45" s="40"/>
     </row>
     <row r="46" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
@@ -4238,10 +4246,10 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
     </row>
     <row r="47" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="15">
@@ -4252,10 +4260,10 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="39"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="39"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
     </row>
     <row r="48" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="14" t="s">
@@ -4266,10 +4274,10 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
     </row>
     <row r="49" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="14">
@@ -4280,10 +4288,10 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
-      <c r="H49" s="39"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="40"/>
     </row>
     <row r="50" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="14">
@@ -4294,10 +4302,10 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
     </row>
     <row r="51" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="14">
@@ -4308,10 +4316,10 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="39"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
-      <c r="H51" s="39"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
     </row>
     <row r="52" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="14" t="s">
@@ -4322,10 +4330,10 @@
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="39"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
-      <c r="H52" s="39"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="40"/>
+      <c r="G52" s="40"/>
+      <c r="H52" s="40"/>
     </row>
     <row r="53" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
@@ -4334,10 +4342,10 @@
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
     </row>
     <row r="54" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="15">
@@ -4346,10 +4354,10 @@
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="39"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
-      <c r="H54" s="39"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="40"/>
+      <c r="G54" s="40"/>
+      <c r="H54" s="40"/>
     </row>
     <row r="55" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="14" t="s">
@@ -4360,10 +4368,10 @@
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
     </row>
     <row r="56" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="14">
@@ -4374,10 +4382,10 @@
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="39"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
-      <c r="H56" s="39"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="40"/>
+      <c r="G56" s="40"/>
+      <c r="H56" s="40"/>
     </row>
     <row r="57" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="14">
@@ -4388,10 +4396,10 @@
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="39"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
-      <c r="H57" s="39"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="40"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="40"/>
     </row>
     <row r="58" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="14">
@@ -4402,10 +4410,10 @@
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="39"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
-      <c r="H58" s="39"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="40"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
     </row>
     <row r="59" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="15">
@@ -4416,10 +4424,10 @@
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
     </row>
     <row r="60" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="15">
@@ -4430,10 +4438,10 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="39"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
-      <c r="H60" s="39"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
     </row>
     <row r="61" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="15">
@@ -4444,10 +4452,10 @@
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="39"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
-      <c r="H61" s="39"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
     </row>
     <row r="62" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="15" t="s">
@@ -4458,10 +4466,10 @@
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="39"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
-      <c r="H62" s="39"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
     </row>
     <row r="63" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="14">
@@ -4472,10 +4480,10 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="39"/>
-      <c r="F63" s="39"/>
-      <c r="G63" s="39"/>
-      <c r="H63" s="39"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
     </row>
     <row r="64" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="17">
@@ -4486,10 +4494,10 @@
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="39"/>
-      <c r="G64" s="39"/>
-      <c r="H64" s="39"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
     </row>
     <row r="65" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="17">
@@ -4500,10 +4508,10 @@
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
     </row>
     <row r="66" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="17">
@@ -4514,10 +4522,10 @@
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="39"/>
-      <c r="G66" s="39"/>
-      <c r="H66" s="39"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="40"/>
+      <c r="G66" s="40"/>
+      <c r="H66" s="40"/>
     </row>
     <row r="67" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="16">
@@ -4526,10 +4534,10 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="39"/>
-      <c r="F67" s="39"/>
-      <c r="G67" s="39"/>
-      <c r="H67" s="39"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="40"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="40"/>
     </row>
     <row r="68" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="15">
@@ -4538,10 +4546,10 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="39"/>
-      <c r="F68" s="39"/>
-      <c r="G68" s="39"/>
-      <c r="H68" s="39"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="40"/>
+      <c r="G68" s="40"/>
+      <c r="H68" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4572,8 +4580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4727,9 +4735,13 @@
       <c r="A11" s="25">
         <v>1.18</v>
       </c>
-      <c r="B11" s="30"/>
+      <c r="B11" s="30" t="s">
+        <v>107</v>
+      </c>
       <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+      <c r="D11" s="30" t="s">
+        <v>106</v>
+      </c>
       <c r="E11" s="31"/>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">

--- a/Schedule/1월 개발일정.xlsx
+++ b/Schedule/1월 개발일정.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\graduation-portfolio\Schedule\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2194,22 +2189,39 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>TCP 채팅 서버 구현(1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3ds max 2017 설치</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbx 로드중 텍스쳐 매핑한 모델 렌더링 가능하도록 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어형(한손검&amp;방패)캐릭터 파츠 조립 fbx로 추출과
+ runing 애니메이션 fbx로 추출</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+11 멀티스레드 tcp 채팅 서버,클라이언트 - 진행중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+11 멀티스레드 tcp 채팅 서버,클라이언트 - 진행중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>설날 연휴</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2396,14 +2408,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -2424,6 +2428,57 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2466,7 +2521,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -2783,45 +2838,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2845,8 +2861,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2856,14 +2887,17 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2936,9 +2970,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2951,101 +2982,99 @@
     <xf numFmtId="0" fontId="26" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="25" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="26" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="29" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
+    <cellStyle name="계산" xfId="5" builtinId="22"/>
     <cellStyle name="나쁨" xfId="3" builtinId="27"/>
     <cellStyle name="메모" xfId="2" builtinId="10"/>
     <cellStyle name="셀 확인" xfId="1" builtinId="23"/>
@@ -3085,7 +3114,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3420,7 +3449,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3434,122 +3463,122 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.69921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.19921875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.69921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.69921875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.69921875" style="1"/>
+    <col min="6" max="6" width="54.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.75" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:8" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="45" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="47"/>
-    </row>
-    <row r="2" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="37"/>
+    </row>
+    <row r="2" spans="1:8" ht="13.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="49"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="21" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="48" t="s">
+      <c r="G2" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="51"/>
-    </row>
-    <row r="3" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>54</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="50"/>
+      <c r="D3" s="40"/>
       <c r="E3" s="12" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="52"/>
-    </row>
-    <row r="4" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H3" s="42"/>
+    </row>
+    <row r="4" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="54"/>
-    </row>
-    <row r="5" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H4" s="44"/>
+    </row>
+    <row r="5" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
         <v>56</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="41"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="12" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="56"/>
-    </row>
-    <row r="6" spans="1:8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H5" s="46"/>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3575,7 +3604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
@@ -3595,7 +3624,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -3615,7 +3644,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14">
         <v>1.1100000000000001</v>
       </c>
@@ -3635,7 +3664,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>1.1200000000000001</v>
       </c>
@@ -3653,7 +3682,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>1.1299999999999999</v>
       </c>
@@ -3671,7 +3700,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>1.1399999999999999</v>
       </c>
@@ -3691,7 +3720,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>1.1499999999999999</v>
       </c>
@@ -3707,7 +3736,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
@@ -3725,7 +3754,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14">
         <v>1.17</v>
       </c>
@@ -3737,13 +3766,13 @@
       <c r="E15" s="14">
         <v>1.17</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F15" s="28" t="s">
         <v>105</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="14">
         <v>1.18</v>
       </c>
@@ -3761,7 +3790,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="14">
         <v>1.19</v>
       </c>
@@ -3779,7 +3808,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="14" t="s">
         <v>10</v>
       </c>
@@ -3797,7 +3826,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>1.21</v>
       </c>
@@ -3811,7 +3840,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
         <v>1.22</v>
       </c>
@@ -3825,7 +3854,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>31</v>
       </c>
@@ -3843,7 +3872,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="14">
         <v>1.24</v>
       </c>
@@ -3861,7 +3890,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="14">
         <v>1.25</v>
       </c>
@@ -3879,7 +3908,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="14">
         <v>1.26</v>
       </c>
@@ -3897,7 +3926,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="15">
         <v>1.27</v>
       </c>
@@ -3915,7 +3944,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>1.28</v>
       </c>
@@ -3933,7 +3962,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <v>1.29</v>
       </c>
@@ -3951,7 +3980,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
@@ -3969,7 +3998,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="14">
         <v>1.31</v>
       </c>
@@ -3987,7 +4016,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>2.1</v>
       </c>
@@ -4005,7 +4034,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>2.2000000000000002</v>
       </c>
@@ -4023,7 +4052,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>2.2999999999999998</v>
       </c>
@@ -4041,7 +4070,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="16">
         <v>2.4</v>
       </c>
@@ -4057,7 +4086,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="15">
         <v>2.5</v>
       </c>
@@ -4071,81 +4100,81 @@
       <c r="G34" s="9"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="42" t="s">
+    <row r="35" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-    </row>
-    <row r="36" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+    </row>
+    <row r="36" spans="1:8" ht="13.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>57</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C36" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-    </row>
-    <row r="37" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D36" s="47"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+    </row>
+    <row r="37" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>67</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="50" t="s">
+      <c r="C37" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-    </row>
-    <row r="38" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D37" s="48"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
         <v>71</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="41"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-    </row>
-    <row r="39" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C38" s="31"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+    </row>
+    <row r="39" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
         <v>72</v>
       </c>
       <c r="B39" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="53" t="s">
+      <c r="C39" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="59"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-    </row>
-    <row r="40" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D39" s="49"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+    </row>
+    <row r="40" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -4158,12 +4187,12 @@
       <c r="D40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-    </row>
-    <row r="41" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+    </row>
+    <row r="41" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
         <v>29</v>
       </c>
@@ -4172,12 +4201,12 @@
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-    </row>
-    <row r="42" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+    </row>
+    <row r="42" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
         <v>9</v>
       </c>
@@ -4186,12 +4215,12 @@
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-    </row>
-    <row r="43" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+    </row>
+    <row r="43" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
         <v>1.1100000000000001</v>
       </c>
@@ -4200,12 +4229,12 @@
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="40"/>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-    </row>
-    <row r="44" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+    </row>
+    <row r="44" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
         <v>1.1200000000000001</v>
       </c>
@@ -4216,12 +4245,12 @@
         <v>93</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="40"/>
-    </row>
-    <row r="45" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+    </row>
+    <row r="45" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
         <v>1.1299999999999999</v>
       </c>
@@ -4232,12 +4261,12 @@
         <v>92</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="40"/>
-      <c r="F45" s="40"/>
-      <c r="G45" s="40"/>
-      <c r="H45" s="40"/>
-    </row>
-    <row r="46" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+    </row>
+    <row r="46" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
         <v>1.1399999999999999</v>
       </c>
@@ -4246,12 +4275,12 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-    </row>
-    <row r="47" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+    </row>
+    <row r="47" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
         <v>1.1499999999999999</v>
       </c>
@@ -4260,12 +4289,12 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="40"/>
-      <c r="F47" s="40"/>
-      <c r="G47" s="40"/>
-      <c r="H47" s="40"/>
-    </row>
-    <row r="48" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+    </row>
+    <row r="48" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
         <v>30</v>
       </c>
@@ -4274,12 +4303,12 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-    </row>
-    <row r="49" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+    </row>
+    <row r="49" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
         <v>1.17</v>
       </c>
@@ -4288,12 +4317,12 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="40"/>
-    </row>
-    <row r="50" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E49" s="30"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+    </row>
+    <row r="50" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
         <v>1.18</v>
       </c>
@@ -4302,12 +4331,12 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-    </row>
-    <row r="51" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E50" s="30"/>
+      <c r="F50" s="30"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+    </row>
+    <row r="51" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
         <v>1.19</v>
       </c>
@@ -4316,12 +4345,12 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="40"/>
-      <c r="F51" s="40"/>
-      <c r="G51" s="40"/>
-      <c r="H51" s="40"/>
-    </row>
-    <row r="52" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+    </row>
+    <row r="52" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
         <v>10</v>
       </c>
@@ -4330,36 +4359,36 @@
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="40"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="40"/>
-      <c r="H52" s="40"/>
-    </row>
-    <row r="53" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E52" s="30"/>
+      <c r="F52" s="30"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+    </row>
+    <row r="53" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
         <v>1.21</v>
       </c>
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="40"/>
-      <c r="H53" s="40"/>
-    </row>
-    <row r="54" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E53" s="30"/>
+      <c r="F53" s="30"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="30"/>
+    </row>
+    <row r="54" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
         <v>1.22</v>
       </c>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-    </row>
-    <row r="55" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E54" s="30"/>
+      <c r="F54" s="30"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+    </row>
+    <row r="55" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>31</v>
       </c>
@@ -4368,12 +4397,12 @@
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-    </row>
-    <row r="56" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E55" s="30"/>
+      <c r="F55" s="30"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="30"/>
+    </row>
+    <row r="56" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>1.24</v>
       </c>
@@ -4382,12 +4411,12 @@
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="40"/>
-      <c r="F56" s="40"/>
-      <c r="G56" s="40"/>
-      <c r="H56" s="40"/>
-    </row>
-    <row r="57" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+    </row>
+    <row r="57" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>1.25</v>
       </c>
@@ -4396,12 +4425,12 @@
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
-      <c r="H57" s="40"/>
-    </row>
-    <row r="58" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+    </row>
+    <row r="58" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>1.26</v>
       </c>
@@ -4410,12 +4439,12 @@
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="40"/>
-      <c r="F58" s="40"/>
-      <c r="G58" s="40"/>
-      <c r="H58" s="40"/>
-    </row>
-    <row r="59" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E58" s="30"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+    </row>
+    <row r="59" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
         <v>1.27</v>
       </c>
@@ -4424,12 +4453,12 @@
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="40"/>
-      <c r="F59" s="40"/>
-      <c r="G59" s="40"/>
-      <c r="H59" s="40"/>
-    </row>
-    <row r="60" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+    </row>
+    <row r="60" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
         <v>1.28</v>
       </c>
@@ -4438,12 +4467,12 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="40"/>
-      <c r="F60" s="40"/>
-      <c r="G60" s="40"/>
-      <c r="H60" s="40"/>
-    </row>
-    <row r="61" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E60" s="30"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+    </row>
+    <row r="61" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
         <v>1.29</v>
       </c>
@@ -4452,12 +4481,12 @@
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="40"/>
-      <c r="F61" s="40"/>
-      <c r="G61" s="40"/>
-      <c r="H61" s="40"/>
-    </row>
-    <row r="62" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+    </row>
+    <row r="62" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
         <v>32</v>
       </c>
@@ -4466,12 +4495,12 @@
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="40"/>
-      <c r="F62" s="40"/>
-      <c r="G62" s="40"/>
-      <c r="H62" s="40"/>
-    </row>
-    <row r="63" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E62" s="30"/>
+      <c r="F62" s="30"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="30"/>
+    </row>
+    <row r="63" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>1.31</v>
       </c>
@@ -4480,12 +4509,12 @@
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-    </row>
-    <row r="64" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E63" s="30"/>
+      <c r="F63" s="30"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+    </row>
+    <row r="64" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>2.1</v>
       </c>
@@ -4494,12 +4523,12 @@
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="40"/>
-      <c r="F64" s="40"/>
-      <c r="G64" s="40"/>
-      <c r="H64" s="40"/>
-    </row>
-    <row r="65" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E64" s="30"/>
+      <c r="F64" s="30"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+    </row>
+    <row r="65" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>2.2000000000000002</v>
       </c>
@@ -4508,12 +4537,12 @@
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="40"/>
-      <c r="G65" s="40"/>
-      <c r="H65" s="40"/>
-    </row>
-    <row r="66" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E65" s="30"/>
+      <c r="F65" s="30"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="30"/>
+    </row>
+    <row r="66" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>2.2999999999999998</v>
       </c>
@@ -4522,34 +4551,34 @@
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="40"/>
-      <c r="F66" s="40"/>
-      <c r="G66" s="40"/>
-      <c r="H66" s="40"/>
-    </row>
-    <row r="67" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E66" s="30"/>
+      <c r="F66" s="30"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+    </row>
+    <row r="67" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
         <v>2.4</v>
       </c>
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="40"/>
-      <c r="F67" s="40"/>
-      <c r="G67" s="40"/>
-      <c r="H67" s="40"/>
-    </row>
-    <row r="68" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="E67" s="30"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+    </row>
+    <row r="68" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
         <v>2.5</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="40"/>
-      <c r="F68" s="40"/>
-      <c r="G68" s="40"/>
-      <c r="H68" s="40"/>
+      <c r="E68" s="30"/>
+      <c r="F68" s="30"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4581,332 +4610,343 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B20" sqref="B20:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.09765625" customWidth="1"/>
-    <col min="2" max="4" width="60.69921875" customWidth="1"/>
-    <col min="5" max="5" width="55.19921875" customWidth="1"/>
+    <col min="1" max="1" width="12.125" customWidth="1"/>
+    <col min="2" max="4" width="60.75" customWidth="1"/>
+    <col min="5" max="5" width="55.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:5" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="50" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="25" t="s">
+    <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="31"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+      <c r="E2" s="53"/>
+    </row>
+    <row r="3" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="52" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="31"/>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="25">
+      <c r="E3" s="53"/>
+    </row>
+    <row r="4" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="31"/>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="25">
+      <c r="E4" s="53"/>
+    </row>
+    <row r="5" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="24">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="30" t="s">
+      <c r="B5" s="54"/>
+      <c r="C5" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="31" t="s">
+      <c r="E5" s="53" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="25">
+    <row r="6" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="54"/>
+      <c r="C6" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="35" t="s">
+      <c r="D6" s="52" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="31" t="s">
+      <c r="E6" s="53" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="26">
+    <row r="7" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="25">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="27">
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+    </row>
+    <row r="8" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="26">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-    </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="25" t="s">
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+    </row>
+    <row r="9" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="31"/>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="25">
+      <c r="E9" s="53"/>
+    </row>
+    <row r="10" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
         <v>1.17</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="31"/>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="25">
+      <c r="E10" s="53"/>
+    </row>
+    <row r="11" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24">
         <v>1.18</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="56"/>
+      <c r="D11" s="51" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="53"/>
+    </row>
+    <row r="12" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="24">
+        <v>1.19</v>
+      </c>
+      <c r="B12" s="51" t="s">
         <v>107</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="31"/>
-    </row>
-    <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="25">
-        <v>1.19</v>
-      </c>
-      <c r="B12" s="30"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-    </row>
-    <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="25" t="s">
+      <c r="C12" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="53"/>
+    </row>
+    <row r="13" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-    </row>
-    <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="26">
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="53"/>
+    </row>
+    <row r="14" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
         <v>1.21</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="31"/>
-    </row>
-    <row r="15" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="27">
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="53"/>
+    </row>
+    <row r="15" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="26">
         <v>1.22</v>
       </c>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="31"/>
-    </row>
-    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="25" t="s">
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="53"/>
+    </row>
+    <row r="16" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="31"/>
-    </row>
-    <row r="17" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="25">
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="53"/>
+    </row>
+    <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="24">
         <v>1.24</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="31"/>
-    </row>
-    <row r="18" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="25">
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="53"/>
+    </row>
+    <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24">
         <v>1.25</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
-    </row>
-    <row r="19" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="25">
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="53"/>
+    </row>
+    <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24">
         <v>1.26</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="27">
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="53"/>
+    </row>
+    <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26">
         <v>1.27</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="31"/>
-    </row>
-    <row r="21" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="27">
+      <c r="B20" s="57" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="53"/>
+    </row>
+    <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26">
         <v>1.28</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-    </row>
-    <row r="22" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="27">
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="53"/>
+    </row>
+    <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="26">
         <v>1.29</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="31"/>
-    </row>
-    <row r="23" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="27" t="s">
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="53"/>
+    </row>
+    <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
-    </row>
-    <row r="24" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="25">
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="53"/>
+    </row>
+    <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="24">
         <v>1.31</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="31"/>
-    </row>
-    <row r="25" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="28">
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="53"/>
+    </row>
+    <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="27">
         <v>2.1</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="31"/>
-    </row>
-    <row r="26" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="28">
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="53"/>
+    </row>
+    <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="28">
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="53"/>
+    </row>
+    <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="27">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="31"/>
-    </row>
-    <row r="28" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="26">
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="53"/>
+    </row>
+    <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="25">
         <v>2.4</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="31"/>
-    </row>
-    <row r="29" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="27">
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="53"/>
+    </row>
+    <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26">
         <v>2.5</v>
       </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B20:D23"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>

--- a/Schedule/1월 개발일정.xlsx
+++ b/Schedule/1월 개발일정.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="118">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2211,6 +2211,31 @@
   </si>
   <si>
     <t>설날 연휴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+11 멀티스레드 tcp 채팅 서버,클라이언트 - 진행중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>패킷 구조 디자인 및 구성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbx모델 텍스쳐 매핑 - 진행중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어형(양손도끼),(한손검&amp;방패) 캐릭터 조립 및
+FBX로 추출, 애니메이션 클립 적용중, fbx로더 - 오류 확인중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+11 멀티스레드 tcp 채팅 서버,클라이언트 - 완료</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2221,7 +2246,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2480,6 +2505,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="25"/>
+      <color rgb="FF9C0006"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2521,7 +2555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2876,6 +2910,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2897,7 +2968,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2985,69 +3056,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3069,7 +3077,85 @@
     <xf numFmtId="0" fontId="35" fillId="7" borderId="3" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="27" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="28" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="29" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="6" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3460,7 +3546,7 @@
   <dimension ref="A1:H68"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3477,18 +3563,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="35" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="37"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="13.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
@@ -3497,20 +3583,20 @@
       <c r="B2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="21" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="41"/>
+      <c r="H2" s="50"/>
     </row>
     <row r="3" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
@@ -3519,20 +3605,20 @@
       <c r="B3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="40"/>
+      <c r="D3" s="49"/>
       <c r="E3" s="12" t="s">
         <v>65</v>
       </c>
       <c r="F3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="H3" s="42"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -3541,20 +3627,20 @@
       <c r="B4" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="31"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="12" t="s">
         <v>66</v>
       </c>
       <c r="F4" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="53"/>
     </row>
     <row r="5" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -3563,20 +3649,20 @@
       <c r="B5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="31"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="12" t="s">
         <v>67</v>
       </c>
       <c r="F5" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="46"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="1:8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
@@ -4101,16 +4187,16 @@
       <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
     </row>
     <row r="36" spans="1:8" ht="13.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
@@ -4119,14 +4205,14 @@
       <c r="B36" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="38" t="s">
+      <c r="C36" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="D36" s="47"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
     </row>
     <row r="37" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
@@ -4135,14 +4221,14 @@
       <c r="B37" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="48"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
     </row>
     <row r="38" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
@@ -4151,12 +4237,12 @@
       <c r="B38" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
     </row>
     <row r="39" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
@@ -4165,14 +4251,14 @@
       <c r="B39" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="C39" s="43" t="s">
+      <c r="C39" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="D39" s="49"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="30"/>
-      <c r="G39" s="30"/>
-      <c r="H39" s="30"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
     </row>
     <row r="40" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
@@ -4187,10 +4273,10 @@
       <c r="D40" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E40" s="30"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
     </row>
     <row r="41" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="14" t="s">
@@ -4201,10 +4287,10 @@
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
-      <c r="E41" s="30"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
     </row>
     <row r="42" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="14" t="s">
@@ -4215,10 +4301,10 @@
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="14">
@@ -4229,10 +4315,10 @@
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
     </row>
     <row r="44" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="14">
@@ -4245,10 +4331,10 @@
         <v>93</v>
       </c>
       <c r="D44" s="6"/>
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="39"/>
     </row>
     <row r="45" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="14">
@@ -4261,10 +4347,10 @@
         <v>92</v>
       </c>
       <c r="D45" s="6"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
+      <c r="E45" s="39"/>
+      <c r="F45" s="39"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="39"/>
     </row>
     <row r="46" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="16">
@@ -4275,10 +4361,10 @@
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
     </row>
     <row r="47" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="15">
@@ -4289,10 +4375,10 @@
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
+      <c r="E47" s="39"/>
+      <c r="F47" s="39"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="39"/>
     </row>
     <row r="48" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="14" t="s">
@@ -4303,10 +4389,10 @@
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="30"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
     </row>
     <row r="49" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="14">
@@ -4317,10 +4403,10 @@
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="30"/>
-      <c r="F49" s="30"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="30"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="39"/>
     </row>
     <row r="50" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="14">
@@ -4331,10 +4417,10 @@
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="30"/>
-      <c r="F50" s="30"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="30"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
     </row>
     <row r="51" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="14">
@@ -4345,10 +4431,10 @@
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
+      <c r="E51" s="39"/>
+      <c r="F51" s="39"/>
+      <c r="G51" s="39"/>
+      <c r="H51" s="39"/>
     </row>
     <row r="52" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="14" t="s">
@@ -4359,10 +4445,10 @@
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="6"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="30"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="30"/>
+      <c r="E52" s="39"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="39"/>
+      <c r="H52" s="39"/>
     </row>
     <row r="53" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="16">
@@ -4371,10 +4457,10 @@
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
       <c r="D53" s="6"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
     </row>
     <row r="54" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15">
@@ -4383,66 +4469,66 @@
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
       <c r="D54" s="6"/>
-      <c r="E54" s="30"/>
-      <c r="F54" s="30"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="30"/>
+      <c r="E54" s="39"/>
+      <c r="F54" s="39"/>
+      <c r="G54" s="39"/>
+      <c r="H54" s="39"/>
     </row>
     <row r="55" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
     </row>
     <row r="56" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="14">
         <v>1.24</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
+      <c r="E56" s="39"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="39"/>
+      <c r="H56" s="39"/>
     </row>
     <row r="57" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="14">
         <v>1.25</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
+      <c r="E57" s="39"/>
+      <c r="F57" s="39"/>
+      <c r="G57" s="39"/>
+      <c r="H57" s="39"/>
     </row>
     <row r="58" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="14">
         <v>1.26</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="6"/>
-      <c r="E58" s="30"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
+      <c r="E58" s="39"/>
+      <c r="F58" s="39"/>
+      <c r="G58" s="39"/>
+      <c r="H58" s="39"/>
     </row>
     <row r="59" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="15">
@@ -4453,10 +4539,10 @@
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="6"/>
-      <c r="E59" s="30"/>
-      <c r="F59" s="30"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="30"/>
+      <c r="E59" s="39"/>
+      <c r="F59" s="39"/>
+      <c r="G59" s="39"/>
+      <c r="H59" s="39"/>
     </row>
     <row r="60" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="15">
@@ -4467,10 +4553,10 @@
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
-      <c r="E60" s="30"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
+      <c r="E60" s="39"/>
+      <c r="F60" s="39"/>
+      <c r="G60" s="39"/>
+      <c r="H60" s="39"/>
     </row>
     <row r="61" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="15">
@@ -4481,10 +4567,10 @@
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="6"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
     </row>
     <row r="62" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
@@ -4495,66 +4581,66 @@
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="6"/>
-      <c r="E62" s="30"/>
-      <c r="F62" s="30"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
     </row>
     <row r="63" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="14">
         <v>1.31</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="30"/>
-      <c r="F63" s="30"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="30"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
     </row>
     <row r="64" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="17">
         <v>2.1</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="6"/>
-      <c r="E64" s="30"/>
-      <c r="F64" s="30"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="30"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
     </row>
     <row r="65" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="17">
         <v>2.2000000000000002</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="6"/>
-      <c r="E65" s="30"/>
-      <c r="F65" s="30"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="30"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
     </row>
     <row r="66" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="17">
         <v>2.2999999999999998</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="30"/>
-      <c r="F66" s="30"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="30"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
     </row>
     <row r="67" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="16">
@@ -4563,10 +4649,10 @@
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
       <c r="D67" s="6"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
+      <c r="E67" s="39"/>
+      <c r="F67" s="39"/>
+      <c r="G67" s="39"/>
+      <c r="H67" s="39"/>
     </row>
     <row r="68" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="15">
@@ -4575,10 +4661,10 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="10"/>
-      <c r="E68" s="30"/>
-      <c r="F68" s="30"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="30"/>
+      <c r="E68" s="39"/>
+      <c r="F68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -4610,7 +4696,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:D23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4621,19 +4707,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="29" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4641,59 +4727,59 @@
       <c r="A2" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="E2" s="53"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="31" t="s">
         <v>87</v>
       </c>
-      <c r="E3" s="53"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24">
         <v>1.1100000000000001</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="D4" s="51" t="s">
+      <c r="D4" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="53"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24">
         <v>1.1200000000000001</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="51" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="32" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4701,14 +4787,14 @@
       <c r="A6" s="24">
         <v>1.1299999999999999</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="51" t="s">
+      <c r="B6" s="33"/>
+      <c r="C6" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="32" t="s">
         <v>90</v>
       </c>
     </row>
@@ -4716,236 +4802,247 @@
       <c r="A7" s="25">
         <v>1.1399999999999999</v>
       </c>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
     </row>
     <row r="8" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="26">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="53"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="24">
         <v>1.17</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="53"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="24">
         <v>1.18</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="30" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="51" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="53"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="24">
         <v>1.19</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="C12" s="52" t="s">
+      <c r="C12" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="D12" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="53"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="53"/>
+      <c r="B13" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>1.21</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="53"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
     </row>
     <row r="15" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26">
         <v>1.22</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="53"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
     </row>
     <row r="16" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="53"/>
+      <c r="B16" s="60" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>1.24</v>
       </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="53"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>1.25</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="53"/>
+      <c r="B18" s="62"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <v>1.26</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="53"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="26">
         <v>1.27</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="53"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="26">
         <v>1.28</v>
       </c>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="53"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="26">
         <v>1.29</v>
       </c>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="53"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="32"/>
     </row>
     <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="53"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <v>1.31</v>
       </c>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="53"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="32"/>
     </row>
     <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="27">
         <v>2.1</v>
       </c>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="53"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="32"/>
     </row>
     <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="27">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="53"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="32"/>
     </row>
     <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="27">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="53"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="32"/>
     </row>
     <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25">
         <v>2.4</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="53"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="26">
         <v>2.5</v>
       </c>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B20:D23"/>
+    <mergeCell ref="B16:B18"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Schedule/1월 개발일정.xlsx
+++ b/Schedule/1월 개발일정.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="119">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2236,6 +2236,11 @@
   </si>
   <si>
     <t>C+11 멀티스레드 tcp 채팅 서버,클라이언트 - 완료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격형 캐릭터(양손검) 모델 완료
+공격형 캐릭터(마법사) 조립중</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3200,7 +3205,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3535,7 +3540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4696,7 +4701,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4914,7 +4919,9 @@
       <c r="B16" s="60" t="s">
         <v>116</v>
       </c>
-      <c r="C16" s="30"/>
+      <c r="C16" s="36" t="s">
+        <v>118</v>
+      </c>
       <c r="D16" s="30" t="s">
         <v>117</v>
       </c>

--- a/Schedule/1월 개발일정.xlsx
+++ b/Schedule/1월 개발일정.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Class\graduation-portfolio\Schedule\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="121">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2093,14 +2098,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>멀티스레드 연습 및 UDP서버 구현</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fbx loader구현. dds 텍스쳐 매핑 렌더러 구현(1)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>FBX Loader 구현</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -2189,11 +2186,52 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3ds max 2017 설치</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fbx 로드중 텍스쳐 매핑한 모델 렌더링 가능하도록 구현</t>
+    <t>C+11 멀티스레드 tcp 채팅 서버,클라이언트 - 진행중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>설날 연휴</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+11 멀티스레드 tcp 채팅 서버,클라이언트 - 진행중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>패킷 구조 디자인 및 구성</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴가</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>C+11 멀티스레드 tcp 채팅 서버,클라이언트 - 완료</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격형 캐릭터(양손검) 모델 완료
+공격형 캐릭터(마법사) 조립중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격형 마법사 파츠 조립중</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbx loader구현. dds 텍스쳐 매핑 렌더러 구현(2)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3ds max 2015 설치</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티스레드 연습 및 UDP에코서버 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>현장실습 중간보고회 참석</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -2202,52 +2240,27 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>C+11 멀티스레드 tcp 채팅 서버,클라이언트 - 진행중</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+11 멀티스레드 tcp 채팅 서버,클라이언트 - 진행중</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>설날 연휴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+11 멀티스레드 tcp 채팅 서버,클라이언트 - 진행중</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>패킷 구조 디자인 및 구성</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>fbx모델 텍스쳐 매핑 - 진행중</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>방어형(양손도끼),(한손검&amp;방패) 캐릭터 조립 및
 FBX로 추출, 애니메이션 클립 적용중, fbx로더 - 오류 확인중</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>휴가</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>C+11 멀티스레드 tcp 채팅 서버,클라이언트 - 완료</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격형 캐릭터(양손검) 모델 완료
-공격형 캐릭터(마법사) 조립중</t>
+    <t>fbx loader구현. dds 텍스쳐 매핑 렌더러 구현(1)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbx 로드중 텍스쳐 매핑한 모델 렌더링 가능하도록 구현</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbx모델 텍스쳐 매핑 - 진행중</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy\.\ m\.\ d"/>
   </numFmts>
@@ -2973,7 +2986,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3162,6 +3175,9 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="6" borderId="30" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="27" xfId="5">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -3205,7 +3221,7 @@
         <xdr:cNvPr id="3" name="그림 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3540,7 +3556,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3554,20 +3570,20 @@
       <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="22.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="54.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="54.69921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="39.19921875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.69921875" style="1" customWidth="1"/>
     <col min="5" max="5" width="22.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="54.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="39.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="28.75" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.75" style="1"/>
+    <col min="6" max="6" width="54.69921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.69921875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" customFormat="1" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="41" t="s">
         <v>27</v>
       </c>
@@ -3581,7 +3597,7 @@
       <c r="G1" s="45"/>
       <c r="H1" s="46"/>
     </row>
-    <row r="2" spans="1:8" ht="13.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="19" t="s">
         <v>57</v>
       </c>
@@ -3603,7 +3619,7 @@
       </c>
       <c r="H2" s="50"/>
     </row>
-    <row r="3" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="18" t="s">
         <v>54</v>
       </c>
@@ -3625,7 +3641,7 @@
       </c>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="18" t="s">
         <v>55</v>
       </c>
@@ -3647,7 +3663,7 @@
       </c>
       <c r="H4" s="53"/>
     </row>
-    <row r="5" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="18" t="s">
         <v>56</v>
       </c>
@@ -3669,7 +3685,7 @@
       </c>
       <c r="H5" s="55"/>
     </row>
-    <row r="6" spans="1:8" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -3695,7 +3711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="14" t="s">
         <v>29</v>
       </c>
@@ -3715,7 +3731,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -3735,7 +3751,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14">
         <v>1.1100000000000001</v>
       </c>
@@ -3755,7 +3771,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
         <v>1.1200000000000001</v>
       </c>
@@ -3773,7 +3789,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
         <v>1.1299999999999999</v>
       </c>
@@ -3791,7 +3807,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>1.1399999999999999</v>
       </c>
@@ -3811,7 +3827,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
         <v>1.1499999999999999</v>
       </c>
@@ -3827,7 +3843,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="14" t="s">
         <v>30</v>
       </c>
@@ -3845,7 +3861,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="14">
         <v>1.17</v>
       </c>
@@ -3858,12 +3874,12 @@
         <v>1.17</v>
       </c>
       <c r="F15" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="14">
         <v>1.18</v>
       </c>
@@ -3881,12 +3897,12 @@
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="14">
         <v>1.19</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -3899,7 +3915,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="14" t="s">
         <v>10</v>
       </c>
@@ -3917,7 +3933,7 @@
       <c r="G18" s="5"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>1.21</v>
       </c>
@@ -3931,7 +3947,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
         <v>1.22</v>
       </c>
@@ -3945,7 +3961,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="14" t="s">
         <v>31</v>
       </c>
@@ -3963,7 +3979,7 @@
       <c r="G21" s="5"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="14">
         <v>1.24</v>
       </c>
@@ -3981,7 +3997,7 @@
       <c r="G22" s="5"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="14">
         <v>1.25</v>
       </c>
@@ -3999,7 +4015,7 @@
       <c r="G23" s="5"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="14">
         <v>1.26</v>
       </c>
@@ -4017,7 +4033,7 @@
       <c r="G24" s="5"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
         <v>1.27</v>
       </c>
@@ -4035,7 +4051,7 @@
       <c r="G25" s="5"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
         <v>1.28</v>
       </c>
@@ -4053,7 +4069,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15">
         <v>1.29</v>
       </c>
@@ -4071,7 +4087,7 @@
       <c r="G27" s="5"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="15" t="s">
         <v>32</v>
       </c>
@@ -4089,7 +4105,7 @@
       <c r="G28" s="5"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="14">
         <v>1.31</v>
       </c>
@@ -4107,7 +4123,7 @@
       <c r="G29" s="5"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="17">
         <v>2.1</v>
       </c>
@@ -4125,7 +4141,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="17">
         <v>2.2000000000000002</v>
       </c>
@@ -4143,7 +4159,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="17">
         <v>2.2999999999999998</v>
       </c>
@@ -4161,7 +4177,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="16">
         <v>2.4</v>
       </c>
@@ -4177,7 +4193,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A34" s="15">
         <v>2.5</v>
       </c>
@@ -4191,7 +4207,7 @@
       <c r="G34" s="9"/>
       <c r="H34" s="10"/>
     </row>
-    <row r="35" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" ht="36.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A35" s="41" t="s">
         <v>58</v>
       </c>
@@ -4203,7 +4219,7 @@
       <c r="G35" s="38"/>
       <c r="H35" s="38"/>
     </row>
-    <row r="36" spans="1:8" ht="13.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" ht="13.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A36" s="19" t="s">
         <v>57</v>
       </c>
@@ -4219,7 +4235,7 @@
       <c r="G36" s="39"/>
       <c r="H36" s="39"/>
     </row>
-    <row r="37" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="18" t="s">
         <v>67</v>
       </c>
@@ -4235,7 +4251,7 @@
       <c r="G37" s="39"/>
       <c r="H37" s="39"/>
     </row>
-    <row r="38" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="18" t="s">
         <v>71</v>
       </c>
@@ -4249,7 +4265,7 @@
       <c r="G38" s="39"/>
       <c r="H38" s="39"/>
     </row>
-    <row r="39" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="18" t="s">
         <v>72</v>
       </c>
@@ -4265,7 +4281,7 @@
       <c r="G39" s="39"/>
       <c r="H39" s="39"/>
     </row>
-    <row r="40" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="2" t="s">
         <v>8</v>
       </c>
@@ -4283,7 +4299,7 @@
       <c r="G40" s="39"/>
       <c r="H40" s="39"/>
     </row>
-    <row r="41" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="14" t="s">
         <v>29</v>
       </c>
@@ -4297,7 +4313,7 @@
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
     </row>
-    <row r="42" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="14" t="s">
         <v>9</v>
       </c>
@@ -4311,7 +4327,7 @@
       <c r="G42" s="39"/>
       <c r="H42" s="39"/>
     </row>
-    <row r="43" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="14">
         <v>1.1100000000000001</v>
       </c>
@@ -4325,7 +4341,7 @@
       <c r="G43" s="39"/>
       <c r="H43" s="39"/>
     </row>
-    <row r="44" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="14">
         <v>1.1200000000000001</v>
       </c>
@@ -4341,7 +4357,7 @@
       <c r="G44" s="39"/>
       <c r="H44" s="39"/>
     </row>
-    <row r="45" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="14">
         <v>1.1299999999999999</v>
       </c>
@@ -4357,7 +4373,7 @@
       <c r="G45" s="39"/>
       <c r="H45" s="39"/>
     </row>
-    <row r="46" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>1.1399999999999999</v>
       </c>
@@ -4371,7 +4387,7 @@
       <c r="G46" s="39"/>
       <c r="H46" s="39"/>
     </row>
-    <row r="47" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="15">
         <v>1.1499999999999999</v>
       </c>
@@ -4385,12 +4401,12 @@
       <c r="G47" s="39"/>
       <c r="H47" s="39"/>
     </row>
-    <row r="48" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
@@ -4399,7 +4415,7 @@
       <c r="G48" s="39"/>
       <c r="H48" s="39"/>
     </row>
-    <row r="49" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="14">
         <v>1.17</v>
       </c>
@@ -4413,7 +4429,7 @@
       <c r="G49" s="39"/>
       <c r="H49" s="39"/>
     </row>
-    <row r="50" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="14">
         <v>1.18</v>
       </c>
@@ -4427,7 +4443,7 @@
       <c r="G50" s="39"/>
       <c r="H50" s="39"/>
     </row>
-    <row r="51" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="14">
         <v>1.19</v>
       </c>
@@ -4441,7 +4457,7 @@
       <c r="G51" s="39"/>
       <c r="H51" s="39"/>
     </row>
-    <row r="52" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="14" t="s">
         <v>10</v>
       </c>
@@ -4455,7 +4471,7 @@
       <c r="G52" s="39"/>
       <c r="H52" s="39"/>
     </row>
-    <row r="53" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>1.21</v>
       </c>
@@ -4467,7 +4483,7 @@
       <c r="G53" s="39"/>
       <c r="H53" s="39"/>
     </row>
-    <row r="54" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="15">
         <v>1.22</v>
       </c>
@@ -4479,12 +4495,12 @@
       <c r="G54" s="39"/>
       <c r="H54" s="39"/>
     </row>
-    <row r="55" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="14" t="s">
         <v>31</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="6"/>
@@ -4493,7 +4509,7 @@
       <c r="G55" s="39"/>
       <c r="H55" s="39"/>
     </row>
-    <row r="56" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="14">
         <v>1.24</v>
       </c>
@@ -4507,7 +4523,7 @@
       <c r="G56" s="39"/>
       <c r="H56" s="39"/>
     </row>
-    <row r="57" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="14">
         <v>1.25</v>
       </c>
@@ -4521,7 +4537,7 @@
       <c r="G57" s="39"/>
       <c r="H57" s="39"/>
     </row>
-    <row r="58" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="14">
         <v>1.26</v>
       </c>
@@ -4535,7 +4551,7 @@
       <c r="G58" s="39"/>
       <c r="H58" s="39"/>
     </row>
-    <row r="59" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="15">
         <v>1.27</v>
       </c>
@@ -4549,7 +4565,7 @@
       <c r="G59" s="39"/>
       <c r="H59" s="39"/>
     </row>
-    <row r="60" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="15">
         <v>1.28</v>
       </c>
@@ -4563,7 +4579,7 @@
       <c r="G60" s="39"/>
       <c r="H60" s="39"/>
     </row>
-    <row r="61" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="15">
         <v>1.29</v>
       </c>
@@ -4577,7 +4593,7 @@
       <c r="G61" s="39"/>
       <c r="H61" s="39"/>
     </row>
-    <row r="62" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="15" t="s">
         <v>32</v>
       </c>
@@ -4591,7 +4607,7 @@
       <c r="G62" s="39"/>
       <c r="H62" s="39"/>
     </row>
-    <row r="63" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="14">
         <v>1.31</v>
       </c>
@@ -4605,7 +4621,7 @@
       <c r="G63" s="39"/>
       <c r="H63" s="39"/>
     </row>
-    <row r="64" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="17">
         <v>2.1</v>
       </c>
@@ -4619,7 +4635,7 @@
       <c r="G64" s="39"/>
       <c r="H64" s="39"/>
     </row>
-    <row r="65" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="17">
         <v>2.2000000000000002</v>
       </c>
@@ -4633,7 +4649,7 @@
       <c r="G65" s="39"/>
       <c r="H65" s="39"/>
     </row>
-    <row r="66" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="17">
         <v>2.2999999999999998</v>
       </c>
@@ -4647,7 +4663,7 @@
       <c r="G66" s="39"/>
       <c r="H66" s="39"/>
     </row>
-    <row r="67" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="16">
         <v>2.4</v>
       </c>
@@ -4659,7 +4675,7 @@
       <c r="G67" s="39"/>
       <c r="H67" s="39"/>
     </row>
-    <row r="68" spans="1:8" ht="13.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" ht="13.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="15">
         <v>2.5</v>
       </c>
@@ -4700,18 +4716,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.125" customWidth="1"/>
-    <col min="2" max="4" width="60.75" customWidth="1"/>
-    <col min="5" max="5" width="55.25" customWidth="1"/>
+    <col min="1" max="1" width="12.09765625" customWidth="1"/>
+    <col min="2" max="4" width="60.69921875" customWidth="1"/>
+    <col min="5" max="5" width="55.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="49.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="49.2" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
@@ -4728,12 +4744,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="24" t="s">
         <v>78</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>77</v>
@@ -4743,12 +4759,12 @@
       </c>
       <c r="E2" s="32"/>
     </row>
-    <row r="3" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="31" t="s">
         <v>83</v>
@@ -4758,7 +4774,7 @@
       </c>
       <c r="E3" s="32"/>
     </row>
-    <row r="4" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="24">
         <v>1.1100000000000001</v>
       </c>
@@ -4773,7 +4789,7 @@
       </c>
       <c r="E4" s="32"/>
     </row>
-    <row r="5" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="24">
         <v>1.1200000000000001</v>
       </c>
@@ -4788,7 +4804,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="24">
         <v>1.1299999999999999</v>
       </c>
@@ -4803,7 +4819,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="25">
         <v>1.1399999999999999</v>
       </c>
@@ -4812,7 +4828,7 @@
       <c r="D7" s="34"/>
       <c r="E7" s="34"/>
     </row>
-    <row r="8" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26">
         <v>1.1499999999999999</v>
       </c>
@@ -4821,80 +4837,80 @@
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
     </row>
-    <row r="9" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>97</v>
       </c>
       <c r="E9" s="32"/>
     </row>
-    <row r="10" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="24">
         <v>1.17</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C10" s="30" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="E10" s="32"/>
     </row>
-    <row r="11" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="24">
         <v>1.18</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="30" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E11" s="32"/>
     </row>
-    <row r="12" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="24">
         <v>1.19</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D12" s="30" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E12" s="32"/>
     </row>
-    <row r="13" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C13" s="36" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D13" s="30" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E13" s="32"/>
     </row>
-    <row r="14" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="25">
         <v>1.21</v>
       </c>
@@ -4903,7 +4919,7 @@
       <c r="D14" s="37"/>
       <c r="E14" s="37"/>
     </row>
-    <row r="15" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="26">
         <v>1.22</v>
       </c>
@@ -4912,31 +4928,33 @@
       <c r="D15" s="37"/>
       <c r="E15" s="37"/>
     </row>
-    <row r="16" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="24" t="s">
         <v>80</v>
       </c>
       <c r="B16" s="60" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="E16" s="32"/>
     </row>
-    <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="24">
         <v>1.24</v>
       </c>
       <c r="B17" s="61"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+      <c r="C17" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D17" s="63"/>
       <c r="E17" s="32"/>
     </row>
-    <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="24">
         <v>1.25</v>
       </c>
@@ -4945,7 +4963,7 @@
       <c r="D18" s="30"/>
       <c r="E18" s="32"/>
     </row>
-    <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="24">
         <v>1.26</v>
       </c>
@@ -4954,18 +4972,18 @@
       <c r="D19" s="30"/>
       <c r="E19" s="32"/>
     </row>
-    <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="26">
         <v>1.27</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
       <c r="E20" s="32"/>
     </row>
-    <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="26">
         <v>1.28</v>
       </c>
@@ -4974,7 +4992,7 @@
       <c r="D21" s="59"/>
       <c r="E21" s="32"/>
     </row>
-    <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="26">
         <v>1.29</v>
       </c>
@@ -4983,7 +5001,7 @@
       <c r="D22" s="59"/>
       <c r="E22" s="32"/>
     </row>
-    <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26" t="s">
         <v>81</v>
       </c>
@@ -4992,7 +5010,7 @@
       <c r="D23" s="59"/>
       <c r="E23" s="32"/>
     </row>
-    <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="24">
         <v>1.31</v>
       </c>
@@ -5001,7 +5019,7 @@
       <c r="D24" s="30"/>
       <c r="E24" s="32"/>
     </row>
-    <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="27">
         <v>2.1</v>
       </c>
@@ -5010,7 +5028,7 @@
       <c r="D25" s="30"/>
       <c r="E25" s="32"/>
     </row>
-    <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="27">
         <v>2.2000000000000002</v>
       </c>
@@ -5019,7 +5037,7 @@
       <c r="D26" s="30"/>
       <c r="E26" s="32"/>
     </row>
-    <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="27">
         <v>2.2999999999999998</v>
       </c>
@@ -5028,7 +5046,7 @@
       <c r="D27" s="30"/>
       <c r="E27" s="32"/>
     </row>
-    <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="25">
         <v>2.4</v>
       </c>
@@ -5037,7 +5055,7 @@
       <c r="D28" s="30"/>
       <c r="E28" s="32"/>
     </row>
-    <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="26">
         <v>2.5</v>
       </c>
